--- a/JupyterNotebooks/AvgHW/RGossF-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.997304165503581</v>
+      </c>
+      <c r="D3">
+        <v>1.001083594361366</v>
+      </c>
+      <c r="E3">
         <v>0.9999578445500481</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0.997304165503581</v>
-      </c>
-      <c r="E3">
-        <v>1.001083594361366</v>
-      </c>
-      <c r="F3">
-        <v>0.9999578445500481</v>
       </c>
       <c r="G3">
         <v>1.003164678341133</v>
@@ -692,10 +644,10 @@
         <v>0.9982228016313306</v>
       </c>
       <c r="I3">
+        <v>0.9999578445500481</v>
+      </c>
+      <c r="J3">
         <v>1.000755387624541</v>
-      </c>
-      <c r="J3">
-        <v>0.997304165503581</v>
       </c>
       <c r="K3">
         <v>0.9999578445500481</v>
@@ -728,7 +680,7 @@
         <v>1.000081412002</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,16 +688,16 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9947669453698981</v>
+      </c>
+      <c r="D4">
+        <v>1.002083198332203</v>
+      </c>
+      <c r="E4">
         <v>0.9999507415950699</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>0.9947669453698981</v>
-      </c>
-      <c r="E4">
-        <v>1.002083198332203</v>
-      </c>
-      <c r="F4">
-        <v>0.9999507415950699</v>
       </c>
       <c r="G4">
         <v>1.006068130234007</v>
@@ -754,10 +706,10 @@
         <v>0.9965685510549493</v>
       </c>
       <c r="I4">
+        <v>0.9999507415950699</v>
+      </c>
+      <c r="J4">
         <v>1.001461492032433</v>
-      </c>
-      <c r="J4">
-        <v>0.9947669453698981</v>
       </c>
       <c r="K4">
         <v>0.9999507415950699</v>
@@ -787,10 +739,10 @@
         <v>0.9991879067230602</v>
       </c>
       <c r="T4">
-        <v>1.000149843103094</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.000149843103093</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,16 +750,16 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9899321270502783</v>
+      </c>
+      <c r="D5">
+        <v>1.00396220981187</v>
+      </c>
+      <c r="E5">
         <v>0.9999928971340316</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>0.9899321270502783</v>
-      </c>
-      <c r="E5">
-        <v>1.00396220981187</v>
-      </c>
-      <c r="F5">
-        <v>0.9999928971340316</v>
       </c>
       <c r="G5">
         <v>1.011543035538078</v>
@@ -816,10 +768,10 @@
         <v>0.9934203021102838</v>
       </c>
       <c r="I5">
+        <v>0.9999928971340316</v>
+      </c>
+      <c r="J5">
         <v>1.002804983335708</v>
-      </c>
-      <c r="J5">
-        <v>0.9899321270502783</v>
       </c>
       <c r="K5">
         <v>0.9999928971340316</v>
@@ -852,7 +804,7 @@
         <v>1.000275925830042</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,16 +812,16 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.985205928566087</v>
+      </c>
+      <c r="D6">
+        <v>1.005791022152467</v>
+      </c>
+      <c r="E6">
         <v>1.000049077689397</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>0.985205928566087</v>
-      </c>
-      <c r="E6">
-        <v>1.005791022152467</v>
-      </c>
-      <c r="F6">
-        <v>1.000049077689397</v>
       </c>
       <c r="G6">
         <v>1.016870907138145</v>
@@ -878,10 +830,10 @@
         <v>0.9903471716504347</v>
       </c>
       <c r="I6">
+        <v>1.000049077689397</v>
+      </c>
+      <c r="J6">
         <v>1.00411698620008</v>
-      </c>
-      <c r="J6">
-        <v>0.985205928566087</v>
       </c>
       <c r="K6">
         <v>1.000049077689397</v>
@@ -914,7 +866,7 @@
         <v>1.000396848899435</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,43 +874,43 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9996938170568526</v>
+      </c>
+      <c r="D7">
+        <v>1.000035908395295</v>
+      </c>
+      <c r="E7">
         <v>1.000151503336477</v>
       </c>
-      <c r="D7">
-        <v>0.9996938170568527</v>
-      </c>
-      <c r="E7">
-        <v>1.000035908395296</v>
-      </c>
       <c r="F7">
-        <v>1.000151503336477</v>
+        <v>0.9996938170568526</v>
       </c>
       <c r="G7">
         <v>1.00007891197885</v>
       </c>
       <c r="H7">
-        <v>0.9998554550766755</v>
+        <v>0.9998554550766749</v>
       </c>
       <c r="I7">
+        <v>1.000151503336477</v>
+      </c>
+      <c r="J7">
         <v>1.000069608904323</v>
-      </c>
-      <c r="J7">
-        <v>0.9996938170568527</v>
       </c>
       <c r="K7">
         <v>1.000151503336477</v>
       </c>
       <c r="L7">
-        <v>1.000035908395296</v>
+        <v>1.000035908395295</v>
       </c>
       <c r="M7">
-        <v>0.9998648627260742</v>
+        <v>0.999864862726074</v>
       </c>
       <c r="N7">
-        <v>0.9998648627260742</v>
+        <v>0.999864862726074</v>
       </c>
       <c r="O7">
-        <v>0.9998617268429414</v>
+        <v>0.9998617268429409</v>
       </c>
       <c r="P7">
         <v>0.9999604095962086</v>
@@ -973,10 +925,10 @@
         <v>1.000008183031276</v>
       </c>
       <c r="T7">
-        <v>0.9999808674580791</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.999980867458079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9992874276652338</v>
+      </c>
+      <c r="D8">
+        <v>1.000070524572142</v>
+      </c>
+      <c r="E8">
         <v>1.000376398451623</v>
       </c>
-      <c r="D8">
-        <v>0.9992874276652335</v>
-      </c>
-      <c r="E8">
-        <v>1.000070524572142</v>
-      </c>
       <c r="F8">
-        <v>1.000376398451623</v>
+        <v>0.9992874276652338</v>
       </c>
       <c r="G8">
         <v>1.000142783161185</v>
       </c>
       <c r="H8">
-        <v>0.9996716076786412</v>
+        <v>0.9996716076786408</v>
       </c>
       <c r="I8">
-        <v>1.000159699927034</v>
+        <v>1.000376398451623</v>
       </c>
       <c r="J8">
-        <v>0.9992874276652335</v>
+        <v>1.000159699927035</v>
       </c>
       <c r="K8">
         <v>1.000376398451623</v>
@@ -1014,19 +966,19 @@
         <v>1.000070524572142</v>
       </c>
       <c r="M8">
-        <v>0.9996789761186877</v>
+        <v>0.9996789761186882</v>
       </c>
       <c r="N8">
-        <v>0.9996789761186877</v>
+        <v>0.9996789761186882</v>
       </c>
       <c r="O8">
-        <v>0.9996765199720056</v>
+        <v>0.9996765199720058</v>
       </c>
       <c r="P8">
-        <v>0.999911450229666</v>
+        <v>0.9999114502296663</v>
       </c>
       <c r="Q8">
-        <v>0.999911450229666</v>
+        <v>0.9999114502296663</v>
       </c>
       <c r="R8">
         <v>1.000027687285155</v>
@@ -1035,10 +987,10 @@
         <v>1.000027687285155</v>
       </c>
       <c r="T8">
-        <v>0.9999514069093097</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999514069093099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,16 +998,16 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9988138051108258</v>
+      </c>
+      <c r="D9">
+        <v>1.00013913245121</v>
+      </c>
+      <c r="E9">
         <v>1.000586708137983</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>0.9988138051108258</v>
-      </c>
-      <c r="E9">
-        <v>1.00013913245121</v>
-      </c>
-      <c r="F9">
-        <v>1.000586708137983</v>
       </c>
       <c r="G9">
         <v>1.000305225884788</v>
@@ -1064,10 +1016,10 @@
         <v>0.9994402818121293</v>
       </c>
       <c r="I9">
+        <v>1.000586708137983</v>
+      </c>
+      <c r="J9">
         <v>1.000269620821763</v>
-      </c>
-      <c r="J9">
-        <v>0.9988138051108258</v>
       </c>
       <c r="K9">
         <v>1.000586708137983</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999257957031165</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,16 +1060,16 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9976065729478348</v>
+      </c>
+      <c r="D10">
+        <v>1.000272096707066</v>
+      </c>
+      <c r="E10">
         <v>1.001199467932849</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>0.9976065729478348</v>
-      </c>
-      <c r="E10">
-        <v>1.000272096707066</v>
-      </c>
-      <c r="F10">
-        <v>1.001199467932849</v>
       </c>
       <c r="G10">
         <v>1.000588507459618</v>
@@ -1126,10 +1078,10 @@
         <v>0.9988760916319116</v>
       </c>
       <c r="I10">
+        <v>1.001199467932849</v>
+      </c>
+      <c r="J10">
         <v>1.000542466782836</v>
-      </c>
-      <c r="J10">
-        <v>0.9976065729478348</v>
       </c>
       <c r="K10">
         <v>1.001199467932849</v>
@@ -1162,7 +1114,7 @@
         <v>0.9998475339103526</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,16 +1122,16 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9957002060952713</v>
+      </c>
+      <c r="D11">
+        <v>1.000501389149472</v>
+      </c>
+      <c r="E11">
         <v>1.002131186784621</v>
       </c>
-      <c r="D11">
-        <v>0.9957002060952711</v>
-      </c>
-      <c r="E11">
-        <v>1.000501389149472</v>
-      </c>
       <c r="F11">
-        <v>1.002131186784621</v>
+        <v>0.9957002060952713</v>
       </c>
       <c r="G11">
         <v>1.001094690134854</v>
@@ -1188,10 +1140,10 @@
         <v>0.99797417526236</v>
       </c>
       <c r="I11">
+        <v>1.002131186784621</v>
+      </c>
+      <c r="J11">
         <v>1.000976549279832</v>
-      </c>
-      <c r="J11">
-        <v>0.9957002060952711</v>
       </c>
       <c r="K11">
         <v>1.002131186784621</v>
@@ -1200,13 +1152,13 @@
         <v>1.000501389149472</v>
       </c>
       <c r="M11">
-        <v>0.9981007976223717</v>
+        <v>0.9981007976223718</v>
       </c>
       <c r="N11">
-        <v>0.9981007976223717</v>
+        <v>0.9981007976223718</v>
       </c>
       <c r="O11">
-        <v>0.9980585901690344</v>
+        <v>0.9980585901690345</v>
       </c>
       <c r="P11">
         <v>0.9994442606764548</v>
@@ -1224,7 +1176,7 @@
         <v>0.9997296994510684</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,16 +1184,16 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9948998809505057</v>
+      </c>
+      <c r="D12">
+        <v>1.002520573470642</v>
+      </c>
+      <c r="E12">
         <v>0.9985390216161668</v>
       </c>
-      <c r="D12">
-        <v>0.9948998809505056</v>
-      </c>
-      <c r="E12">
-        <v>1.002520573470642</v>
-      </c>
       <c r="F12">
-        <v>0.9985390216161668</v>
+        <v>0.9948998809505057</v>
       </c>
       <c r="G12">
         <v>1.006068376289979</v>
@@ -1250,10 +1202,10 @@
         <v>0.9970636620381407</v>
       </c>
       <c r="I12">
-        <v>1.001359776493563</v>
+        <v>0.9985390216161668</v>
       </c>
       <c r="J12">
-        <v>0.9948998809505056</v>
+        <v>1.001359776493564</v>
       </c>
       <c r="K12">
         <v>0.9985390216161668</v>
@@ -1262,10 +1214,10 @@
         <v>1.002520573470642</v>
       </c>
       <c r="M12">
-        <v>0.9987102272105738</v>
+        <v>0.9987102272105739</v>
       </c>
       <c r="N12">
-        <v>0.9987102272105738</v>
+        <v>0.9987102272105739</v>
       </c>
       <c r="O12">
         <v>0.9981613721530961</v>
@@ -1286,7 +1238,7 @@
         <v>1.000075215143166</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,16 +1246,16 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9988911172967685</v>
+      </c>
+      <c r="D13">
+        <v>0.9995739654508984</v>
+      </c>
+      <c r="E13">
         <v>1.002150129736611</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>0.9988911172967685</v>
-      </c>
-      <c r="E13">
-        <v>0.9995739654508985</v>
-      </c>
-      <c r="F13">
-        <v>1.002150129736611</v>
       </c>
       <c r="G13">
         <v>1.000107663060355</v>
@@ -1312,16 +1264,16 @@
         <v>0.9990153688385859</v>
       </c>
       <c r="I13">
-        <v>1.000325035774883</v>
+        <v>1.002150129736611</v>
       </c>
       <c r="J13">
-        <v>0.9988911172967685</v>
+        <v>1.000325035774882</v>
       </c>
       <c r="K13">
         <v>1.002150129736611</v>
       </c>
       <c r="L13">
-        <v>0.9995739654508985</v>
+        <v>0.9995739654508984</v>
       </c>
       <c r="M13">
         <v>0.9992325413738334</v>
@@ -1348,7 +1300,7 @@
         <v>1.000010546693017</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,16 +1308,16 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.6087752629102896</v>
+      </c>
+      <c r="D14">
+        <v>1.118876613314101</v>
+      </c>
+      <c r="E14">
         <v>1.060157332243438</v>
       </c>
-      <c r="D14">
-        <v>0.6087752629102897</v>
-      </c>
-      <c r="E14">
-        <v>1.118876613314101</v>
-      </c>
       <c r="F14">
-        <v>1.060157332243438</v>
+        <v>0.6087752629102896</v>
       </c>
       <c r="G14">
         <v>1.328982962628722</v>
@@ -1374,10 +1326,10 @@
         <v>0.7707925705384401</v>
       </c>
       <c r="I14">
+        <v>1.060157332243438</v>
+      </c>
+      <c r="J14">
         <v>1.101757282267054</v>
-      </c>
-      <c r="J14">
-        <v>0.6087752629102897</v>
       </c>
       <c r="K14">
         <v>1.060157332243438</v>
@@ -1395,22 +1347,22 @@
         <v>0.8328148155876103</v>
       </c>
       <c r="P14">
-        <v>0.9292697361559427</v>
+        <v>0.929269736155943</v>
       </c>
       <c r="Q14">
-        <v>0.9292697361559429</v>
+        <v>0.929269736155943</v>
       </c>
       <c r="R14">
-        <v>0.9619916351778166</v>
+        <v>0.9619916351778168</v>
       </c>
       <c r="S14">
-        <v>0.9619916351778166</v>
+        <v>0.9619916351778168</v>
       </c>
       <c r="T14">
         <v>0.9982236706503408</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,16 +1370,16 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.8751624151924478</v>
+      </c>
+      <c r="D15">
+        <v>1.022439094449975</v>
+      </c>
+      <c r="E15">
         <v>1.046662981219421</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>0.8751624151924478</v>
-      </c>
-      <c r="E15">
-        <v>1.022439094449975</v>
-      </c>
-      <c r="F15">
-        <v>1.046662981219421</v>
       </c>
       <c r="G15">
         <v>1.054272234625513</v>
@@ -1436,10 +1388,10 @@
         <v>0.9374779605329293</v>
       </c>
       <c r="I15">
+        <v>1.046662981219421</v>
+      </c>
+      <c r="J15">
         <v>1.029501459234324</v>
-      </c>
-      <c r="J15">
-        <v>0.8751624151924478</v>
       </c>
       <c r="K15">
         <v>1.046662981219421</v>
@@ -1472,7 +1424,7 @@
         <v>0.9942526908757684</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999303484790252</v>
+        <v>0.9460895172808567</v>
       </c>
       <c r="D16">
-        <v>1.000042578917176</v>
+        <v>1.020558443478921</v>
       </c>
       <c r="E16">
-        <v>1.000024634121796</v>
+        <v>1.00108782984093</v>
       </c>
       <c r="F16">
-        <v>0.9999303484790252</v>
+        <v>0.9460895172808567</v>
       </c>
       <c r="G16">
-        <v>1.000096495996724</v>
+        <v>1.059547525903773</v>
       </c>
       <c r="H16">
-        <v>0.9999944073866506</v>
+        <v>0.965274253996011</v>
       </c>
       <c r="I16">
-        <v>0.9999971449134542</v>
+        <v>1.00108782984093</v>
       </c>
       <c r="J16">
-        <v>1.000042578917176</v>
+        <v>1.014881890471883</v>
       </c>
       <c r="K16">
-        <v>0.9999303484790252</v>
+        <v>1.00108782984093</v>
       </c>
       <c r="L16">
-        <v>1.000024634121796</v>
+        <v>1.020558443478921</v>
       </c>
       <c r="M16">
-        <v>1.000033606519485</v>
+        <v>0.9833239803798888</v>
       </c>
       <c r="N16">
-        <v>1.000033606519485</v>
+        <v>0.9833239803798888</v>
       </c>
       <c r="O16">
-        <v>1.000020540141874</v>
+        <v>0.9773074049185961</v>
       </c>
       <c r="P16">
-        <v>0.9999991871726653</v>
+        <v>0.989245263533569</v>
       </c>
       <c r="Q16">
-        <v>0.9999991871726653</v>
+        <v>0.989245263533569</v>
       </c>
       <c r="R16">
-        <v>0.9999819774992553</v>
+        <v>0.9922059051104091</v>
       </c>
       <c r="S16">
-        <v>0.9999819774992553</v>
+        <v>0.9922059051104091</v>
       </c>
       <c r="T16">
-        <v>1.000014268302471</v>
+        <v>1.001239910162062</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000325782210845</v>
+        <v>0.9529164039664825</v>
       </c>
       <c r="D17">
-        <v>0.9995500686681916</v>
+        <v>1.015344404742307</v>
       </c>
       <c r="E17">
-        <v>0.9999924605194186</v>
+        <v>1.005617483844522</v>
       </c>
       <c r="F17">
-        <v>1.000325782210845</v>
+        <v>0.9529164039664825</v>
       </c>
       <c r="G17">
-        <v>0.9999085737464578</v>
+        <v>1.043568046168387</v>
       </c>
       <c r="H17">
-        <v>0.9998340621847308</v>
+        <v>0.9714068461945048</v>
       </c>
       <c r="I17">
-        <v>1.000089637956667</v>
+        <v>1.005617483844522</v>
       </c>
       <c r="J17">
-        <v>0.9995500686681916</v>
+        <v>1.012508574957549</v>
       </c>
       <c r="K17">
-        <v>1.000325782210845</v>
+        <v>1.005617483844522</v>
       </c>
       <c r="L17">
-        <v>0.9999924605194186</v>
+        <v>1.015344404742307</v>
       </c>
       <c r="M17">
-        <v>0.9997712645938051</v>
+        <v>0.9841304043543946</v>
       </c>
       <c r="N17">
-        <v>0.9997712645938051</v>
+        <v>0.9841304043543946</v>
       </c>
       <c r="O17">
-        <v>0.9997921971241137</v>
+        <v>0.979889218301098</v>
       </c>
       <c r="P17">
-        <v>0.9999561037994852</v>
+        <v>0.9912927641844371</v>
       </c>
       <c r="Q17">
-        <v>0.9999561037994852</v>
+        <v>0.9912927641844371</v>
       </c>
       <c r="R17">
-        <v>1.000048523402325</v>
+        <v>0.9948739440994584</v>
       </c>
       <c r="S17">
-        <v>1.000048523402325</v>
+        <v>0.9948739440994584</v>
       </c>
       <c r="T17">
-        <v>0.9999500975477186</v>
+        <v>1.000226959978959</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9996198707615425</v>
+        <v>0.9666858731170367</v>
       </c>
       <c r="D18">
-        <v>0.9994197505289851</v>
+        <v>1.004935675529343</v>
       </c>
       <c r="E18">
-        <v>1.000445795524169</v>
+        <v>1.014560408947181</v>
       </c>
       <c r="F18">
-        <v>0.9996198707615425</v>
+        <v>0.9666858731170367</v>
       </c>
       <c r="G18">
-        <v>1.001392186952629</v>
+        <v>1.011684919487851</v>
       </c>
       <c r="H18">
-        <v>0.9994639240753249</v>
+        <v>0.9837051582825377</v>
       </c>
       <c r="I18">
-        <v>1.000205001447221</v>
+        <v>1.014560408947181</v>
       </c>
       <c r="J18">
-        <v>0.9994197505289851</v>
+        <v>1.007741721832312</v>
       </c>
       <c r="K18">
-        <v>0.9996198707615425</v>
+        <v>1.014560408947181</v>
       </c>
       <c r="L18">
-        <v>1.000445795524169</v>
+        <v>1.004935675529343</v>
       </c>
       <c r="M18">
-        <v>0.9999327730265772</v>
+        <v>0.9858107743231901</v>
       </c>
       <c r="N18">
-        <v>0.9999327730265772</v>
+        <v>0.9858107743231901</v>
       </c>
       <c r="O18">
-        <v>0.9997764900428265</v>
+        <v>0.9851089023096393</v>
       </c>
       <c r="P18">
-        <v>0.9998284722715657</v>
+        <v>0.9953939858645203</v>
       </c>
       <c r="Q18">
-        <v>0.9998284722715657</v>
+        <v>0.9953939858645203</v>
       </c>
       <c r="R18">
-        <v>0.9997763218940598</v>
+        <v>1.000185591635185</v>
       </c>
       <c r="S18">
-        <v>0.9997763218940598</v>
+        <v>1.000185591635185</v>
       </c>
       <c r="T18">
-        <v>1.000091088214979</v>
+        <v>0.9982189595327103</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9980968901597131</v>
+        <v>0.9644106318889518</v>
       </c>
       <c r="D19">
-        <v>0.9993279474759367</v>
+        <v>1.004224833603832</v>
       </c>
       <c r="E19">
+        <v>1.017536858638707</v>
+      </c>
+      <c r="F19">
+        <v>0.9644106318889518</v>
+      </c>
+      <c r="G19">
+        <v>1.009384887695886</v>
+      </c>
+      <c r="H19">
+        <v>0.9831403601533563</v>
+      </c>
+      <c r="I19">
+        <v>1.017536858638707</v>
+      </c>
+      <c r="J19">
+        <v>1.008105889112769</v>
+      </c>
+      <c r="K19">
+        <v>1.017536858638707</v>
+      </c>
+      <c r="L19">
+        <v>1.004224833603832</v>
+      </c>
+      <c r="M19">
+        <v>0.9843177327463919</v>
+      </c>
+      <c r="N19">
+        <v>0.9843177327463919</v>
+      </c>
+      <c r="O19">
+        <v>0.98392527521538</v>
+      </c>
+      <c r="P19">
+        <v>0.9953907747104971</v>
+      </c>
+      <c r="Q19">
+        <v>0.9953907747104971</v>
+      </c>
+      <c r="R19">
+        <v>1.00092729569255</v>
+      </c>
+      <c r="S19">
+        <v>1.00092729569255</v>
+      </c>
+      <c r="T19">
+        <v>0.997800576848917</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000042578917176</v>
+      </c>
+      <c r="D20">
+        <v>1.000024634121796</v>
+      </c>
+      <c r="E20">
+        <v>0.9999303484790252</v>
+      </c>
+      <c r="F20">
+        <v>1.000042578917176</v>
+      </c>
+      <c r="G20">
+        <v>1.000096495996724</v>
+      </c>
+      <c r="H20">
+        <v>0.9999944073866506</v>
+      </c>
+      <c r="I20">
+        <v>0.9999303484790252</v>
+      </c>
+      <c r="J20">
+        <v>0.9999971449134542</v>
+      </c>
+      <c r="K20">
+        <v>0.9999303484790252</v>
+      </c>
+      <c r="L20">
+        <v>1.000024634121796</v>
+      </c>
+      <c r="M20">
+        <v>1.000033606519486</v>
+      </c>
+      <c r="N20">
+        <v>1.000033606519486</v>
+      </c>
+      <c r="O20">
+        <v>1.000020540141874</v>
+      </c>
+      <c r="P20">
+        <v>0.9999991871726657</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999991871726657</v>
+      </c>
+      <c r="R20">
+        <v>0.9999819774992555</v>
+      </c>
+      <c r="S20">
+        <v>0.9999819774992555</v>
+      </c>
+      <c r="T20">
+        <v>1.000014268302471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9995500686681918</v>
+      </c>
+      <c r="D21">
+        <v>0.9999924605194183</v>
+      </c>
+      <c r="E21">
+        <v>1.000325782210845</v>
+      </c>
+      <c r="F21">
+        <v>0.9995500686681918</v>
+      </c>
+      <c r="G21">
+        <v>0.999908573746458</v>
+      </c>
+      <c r="H21">
+        <v>0.9998340621847307</v>
+      </c>
+      <c r="I21">
+        <v>1.000325782210845</v>
+      </c>
+      <c r="J21">
+        <v>1.000089637956667</v>
+      </c>
+      <c r="K21">
+        <v>1.000325782210845</v>
+      </c>
+      <c r="L21">
+        <v>0.9999924605194183</v>
+      </c>
+      <c r="M21">
+        <v>0.9997712645938051</v>
+      </c>
+      <c r="N21">
+        <v>0.9997712645938051</v>
+      </c>
+      <c r="O21">
+        <v>0.9997921971241136</v>
+      </c>
+      <c r="P21">
+        <v>0.9999561037994852</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999561037994852</v>
+      </c>
+      <c r="R21">
+        <v>1.000048523402325</v>
+      </c>
+      <c r="S21">
+        <v>1.000048523402325</v>
+      </c>
+      <c r="T21">
+        <v>0.9999500975477186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9994197505289858</v>
+      </c>
+      <c r="D22">
+        <v>1.000445795524169</v>
+      </c>
+      <c r="E22">
+        <v>0.9996198707615427</v>
+      </c>
+      <c r="F22">
+        <v>0.9994197505289858</v>
+      </c>
+      <c r="G22">
+        <v>1.001392186952629</v>
+      </c>
+      <c r="H22">
+        <v>0.9994639240753249</v>
+      </c>
+      <c r="I22">
+        <v>0.9996198707615427</v>
+      </c>
+      <c r="J22">
+        <v>1.000205001447221</v>
+      </c>
+      <c r="K22">
+        <v>0.9996198707615427</v>
+      </c>
+      <c r="L22">
+        <v>1.000445795524169</v>
+      </c>
+      <c r="M22">
+        <v>0.9999327730265775</v>
+      </c>
+      <c r="N22">
+        <v>0.9999327730265775</v>
+      </c>
+      <c r="O22">
+        <v>0.9997764900428265</v>
+      </c>
+      <c r="P22">
+        <v>0.9998284722715658</v>
+      </c>
+      <c r="Q22">
+        <v>0.9998284722715659</v>
+      </c>
+      <c r="R22">
+        <v>0.9997763218940601</v>
+      </c>
+      <c r="S22">
+        <v>0.9997763218940601</v>
+      </c>
+      <c r="T22">
+        <v>1.000091088214979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.999327947475937</v>
+      </c>
+      <c r="D23">
         <v>1.001353972106113</v>
       </c>
-      <c r="F19">
-        <v>0.9980968901597131</v>
-      </c>
-      <c r="G19">
+      <c r="E23">
+        <v>0.9980968901597128</v>
+      </c>
+      <c r="F23">
+        <v>0.999327947475937</v>
+      </c>
+      <c r="G23">
         <v>1.004412722089736</v>
       </c>
-      <c r="H19">
+      <c r="H23">
         <v>0.9987748558233439</v>
       </c>
-      <c r="I19">
+      <c r="I23">
+        <v>0.9980968901597128</v>
+      </c>
+      <c r="J23">
         <v>1.000404383359204</v>
       </c>
-      <c r="J19">
-        <v>0.9993279474759367</v>
-      </c>
-      <c r="K19">
-        <v>0.9980968901597131</v>
-      </c>
-      <c r="L19">
+      <c r="K23">
+        <v>0.9980968901597128</v>
+      </c>
+      <c r="L23">
         <v>1.001353972106113</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.000340959791025</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000340959791025</v>
       </c>
-      <c r="O19">
-        <v>0.999818925135131</v>
-      </c>
-      <c r="P19">
+      <c r="O23">
+        <v>0.9998189251351312</v>
+      </c>
+      <c r="P23">
+        <v>0.9995929365805876</v>
+      </c>
+      <c r="Q23">
         <v>0.9995929365805875</v>
       </c>
-      <c r="Q19">
-        <v>0.9995929365805875</v>
-      </c>
-      <c r="R19">
-        <v>0.9992189249753689</v>
-      </c>
-      <c r="S19">
-        <v>0.9992189249753689</v>
-      </c>
-      <c r="T19">
+      <c r="R23">
+        <v>0.9992189249753688</v>
+      </c>
+      <c r="S23">
+        <v>0.9992189249753688</v>
+      </c>
+      <c r="T23">
         <v>1.000395128502341</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/RGossF-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW30.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.997304165503581</v>
+        <v>0.9652090693083569</v>
       </c>
       <c r="D3">
-        <v>1.001083594361366</v>
+        <v>1.004788196793948</v>
       </c>
       <c r="E3">
-        <v>0.9999578445500481</v>
+        <v>1.015910244610952</v>
       </c>
       <c r="F3">
-        <v>0.997304165503581</v>
+        <v>0.9652090693083569</v>
       </c>
       <c r="G3">
-        <v>1.003164678341133</v>
+        <v>1.011151041311239</v>
       </c>
       <c r="H3">
-        <v>0.9982228016313306</v>
+        <v>0.9831584884005756</v>
       </c>
       <c r="I3">
-        <v>0.9999578445500481</v>
+        <v>1.015910244610952</v>
       </c>
       <c r="J3">
-        <v>1.000755387624541</v>
+        <v>1.008030776916425</v>
       </c>
       <c r="K3">
-        <v>0.9999578445500481</v>
+        <v>1.015910244610952</v>
       </c>
       <c r="L3">
-        <v>1.001083594361366</v>
+        <v>1.004788196793948</v>
       </c>
       <c r="M3">
-        <v>0.9991938799324734</v>
+        <v>0.9849986330511522</v>
       </c>
       <c r="N3">
-        <v>0.9991938799324734</v>
+        <v>0.9849986330511522</v>
       </c>
       <c r="O3">
-        <v>0.9988701871654259</v>
+        <v>0.98438525150096</v>
       </c>
       <c r="P3">
-        <v>0.9994485348049983</v>
+        <v>0.9953025035710855</v>
       </c>
       <c r="Q3">
-        <v>0.9994485348049983</v>
+        <v>0.9953025035710855</v>
       </c>
       <c r="R3">
-        <v>0.9995758622412607</v>
+        <v>1.000454438831052</v>
       </c>
       <c r="S3">
-        <v>0.9995758622412607</v>
+        <v>1.000454438831052</v>
       </c>
       <c r="T3">
-        <v>1.000081412002</v>
+        <v>0.9980413028902492</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9947669453698981</v>
+        <v>0.9663788778233307</v>
       </c>
       <c r="D4">
-        <v>1.002083198332203</v>
+        <v>1.004767325046587</v>
       </c>
       <c r="E4">
-        <v>0.9999507415950699</v>
+        <v>1.015100989243387</v>
       </c>
       <c r="F4">
-        <v>0.9947669453698981</v>
+        <v>0.9663788778233307</v>
       </c>
       <c r="G4">
-        <v>1.006068130234007</v>
+        <v>1.011165666023108</v>
       </c>
       <c r="H4">
-        <v>0.9965685510549493</v>
+        <v>0.9836641479761471</v>
       </c>
       <c r="I4">
-        <v>0.9999507415950699</v>
+        <v>1.015100989243387</v>
       </c>
       <c r="J4">
-        <v>1.001461492032433</v>
+        <v>1.007780055475213</v>
       </c>
       <c r="K4">
-        <v>0.9999507415950699</v>
+        <v>1.015100989243387</v>
       </c>
       <c r="L4">
-        <v>1.002083198332203</v>
+        <v>1.004767325046587</v>
       </c>
       <c r="M4">
-        <v>0.9984250718510506</v>
+        <v>0.985573101434959</v>
       </c>
       <c r="N4">
-        <v>0.9984250718510506</v>
+        <v>0.985573101434959</v>
       </c>
       <c r="O4">
-        <v>0.9978062315856834</v>
+        <v>0.9849367836153551</v>
       </c>
       <c r="P4">
-        <v>0.9989336284323903</v>
+        <v>0.9954157307044351</v>
       </c>
       <c r="Q4">
-        <v>0.9989336284323903</v>
+        <v>0.9954157307044351</v>
       </c>
       <c r="R4">
-        <v>0.9991879067230602</v>
+        <v>1.000337045339173</v>
       </c>
       <c r="S4">
-        <v>0.9991879067230602</v>
+        <v>1.000337045339173</v>
       </c>
       <c r="T4">
-        <v>1.000149843103093</v>
+        <v>0.9981428435979622</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9899321270502783</v>
+        <v>0.9626719351482477</v>
       </c>
       <c r="D5">
-        <v>1.00396220981187</v>
+        <v>1.004869384582211</v>
       </c>
       <c r="E5">
-        <v>0.9999928971340316</v>
+        <v>1.017593491320753</v>
       </c>
       <c r="F5">
-        <v>0.9899321270502783</v>
+        <v>0.9626719351482477</v>
       </c>
       <c r="G5">
-        <v>1.011543035538078</v>
+        <v>1.011214975148248</v>
       </c>
       <c r="H5">
-        <v>0.9934203021102838</v>
+        <v>0.9820484159568736</v>
       </c>
       <c r="I5">
-        <v>0.9999928971340316</v>
+        <v>1.017593491320753</v>
       </c>
       <c r="J5">
-        <v>1.002804983335708</v>
+        <v>1.008579045067386</v>
       </c>
       <c r="K5">
-        <v>0.9999928971340316</v>
+        <v>1.017593491320753</v>
       </c>
       <c r="L5">
-        <v>1.00396220981187</v>
+        <v>1.004869384582211</v>
       </c>
       <c r="M5">
-        <v>0.9969471684310741</v>
+        <v>0.9837706598652292</v>
       </c>
       <c r="N5">
-        <v>0.9969471684310741</v>
+        <v>0.9837706598652292</v>
       </c>
       <c r="O5">
-        <v>0.995771546324144</v>
+        <v>0.983196578562444</v>
       </c>
       <c r="P5">
-        <v>0.9979624113320599</v>
+        <v>0.9950449370170705</v>
       </c>
       <c r="Q5">
-        <v>0.9979624113320599</v>
+        <v>0.9950449370170705</v>
       </c>
       <c r="R5">
-        <v>0.9984700327825529</v>
+        <v>1.000682075592991</v>
       </c>
       <c r="S5">
-        <v>0.9984700327825529</v>
+        <v>1.000682075592991</v>
       </c>
       <c r="T5">
-        <v>1.000275925830042</v>
+        <v>0.9978295412039532</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.985205928566087</v>
+        <v>0.9599277759090914</v>
       </c>
       <c r="D6">
-        <v>1.005791022152467</v>
+        <v>1.004994611647727</v>
       </c>
       <c r="E6">
-        <v>1.000049077689397</v>
+        <v>1.019339222386364</v>
       </c>
       <c r="F6">
-        <v>0.985205928566087</v>
+        <v>0.9599277759090914</v>
       </c>
       <c r="G6">
-        <v>1.016870907138145</v>
+        <v>1.011383726931818</v>
       </c>
       <c r="H6">
-        <v>0.9903471716504347</v>
+        <v>0.9808338318181815</v>
       </c>
       <c r="I6">
-        <v>1.000049077689397</v>
+        <v>1.019339222386364</v>
       </c>
       <c r="J6">
-        <v>1.00411698620008</v>
+        <v>1.009176714886363</v>
       </c>
       <c r="K6">
-        <v>1.000049077689397</v>
+        <v>1.019339222386364</v>
       </c>
       <c r="L6">
-        <v>1.005791022152467</v>
+        <v>1.004994611647727</v>
       </c>
       <c r="M6">
-        <v>0.9954984753592768</v>
+        <v>0.9824611937784092</v>
       </c>
       <c r="N6">
-        <v>0.9954984753592768</v>
+        <v>0.9824611937784092</v>
       </c>
       <c r="O6">
-        <v>0.9937813741229961</v>
+        <v>0.9819187397916668</v>
       </c>
       <c r="P6">
-        <v>0.9970153428026501</v>
+        <v>0.9947538699810609</v>
       </c>
       <c r="Q6">
-        <v>0.9970153428026501</v>
+        <v>0.9947538699810609</v>
       </c>
       <c r="R6">
-        <v>0.9977737765243369</v>
+        <v>1.000900208082387</v>
       </c>
       <c r="S6">
-        <v>0.9977737765243369</v>
+        <v>1.000900208082387</v>
       </c>
       <c r="T6">
-        <v>1.000396848899435</v>
+        <v>0.9976093139299241</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9996938170568526</v>
+        <v>1.323110952441376</v>
       </c>
       <c r="D7">
-        <v>1.000035908395295</v>
+        <v>0.9138557565222352</v>
       </c>
       <c r="E7">
-        <v>1.000151503336477</v>
+        <v>0.9296186423440608</v>
       </c>
       <c r="F7">
-        <v>0.9996938170568526</v>
+        <v>1.323110952441376</v>
       </c>
       <c r="G7">
-        <v>1.00007891197885</v>
+        <v>0.7693843787927809</v>
       </c>
       <c r="H7">
-        <v>0.9998554550766749</v>
+        <v>1.18018072879626</v>
       </c>
       <c r="I7">
-        <v>1.000151503336477</v>
+        <v>0.9296186423440608</v>
       </c>
       <c r="J7">
-        <v>1.000069608904323</v>
+        <v>0.9184513470348211</v>
       </c>
       <c r="K7">
-        <v>1.000151503336477</v>
+        <v>0.9296186423440608</v>
       </c>
       <c r="L7">
-        <v>1.000035908395295</v>
+        <v>0.9138557565222352</v>
       </c>
       <c r="M7">
-        <v>0.999864862726074</v>
+        <v>1.118483354481806</v>
       </c>
       <c r="N7">
-        <v>0.999864862726074</v>
+        <v>1.118483354481806</v>
       </c>
       <c r="O7">
-        <v>0.9998617268429409</v>
+        <v>1.139049145919957</v>
       </c>
       <c r="P7">
-        <v>0.9999604095962086</v>
+        <v>1.055528450435891</v>
       </c>
       <c r="Q7">
-        <v>0.9999604095962086</v>
+        <v>1.055528450435891</v>
       </c>
       <c r="R7">
-        <v>1.000008183031276</v>
+        <v>1.024050998412933</v>
       </c>
       <c r="S7">
-        <v>1.000008183031276</v>
+        <v>1.024050998412933</v>
       </c>
       <c r="T7">
-        <v>0.999980867458079</v>
+        <v>1.005766967655256</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9992874276652338</v>
+        <v>1.319937262685466</v>
       </c>
       <c r="D8">
-        <v>1.000070524572142</v>
+        <v>0.9144853086353874</v>
       </c>
       <c r="E8">
-        <v>1.000376398451623</v>
+        <v>0.9307118939630491</v>
       </c>
       <c r="F8">
-        <v>0.9992874276652338</v>
+        <v>1.319937262685466</v>
       </c>
       <c r="G8">
-        <v>1.000142783161185</v>
+        <v>0.7709887543065238</v>
       </c>
       <c r="H8">
-        <v>0.9996716076786408</v>
+        <v>1.178534735263661</v>
       </c>
       <c r="I8">
-        <v>1.000376398451623</v>
+        <v>0.9307118939630491</v>
       </c>
       <c r="J8">
-        <v>1.000159699927035</v>
+        <v>0.9192160884878839</v>
       </c>
       <c r="K8">
-        <v>1.000376398451623</v>
+        <v>0.9307118939630491</v>
       </c>
       <c r="L8">
-        <v>1.000070524572142</v>
+        <v>0.9144853086353874</v>
       </c>
       <c r="M8">
-        <v>0.9996789761186882</v>
+        <v>1.117211285660427</v>
       </c>
       <c r="N8">
-        <v>0.9996789761186882</v>
+        <v>1.117211285660427</v>
       </c>
       <c r="O8">
-        <v>0.9996765199720058</v>
+        <v>1.137652435528172</v>
       </c>
       <c r="P8">
-        <v>0.9999114502296663</v>
+        <v>1.055044821761301</v>
       </c>
       <c r="Q8">
-        <v>0.9999114502296663</v>
+        <v>1.055044821761301</v>
       </c>
       <c r="R8">
-        <v>1.000027687285155</v>
+        <v>1.023961589811738</v>
       </c>
       <c r="S8">
-        <v>1.000027687285155</v>
+        <v>1.023961589811738</v>
       </c>
       <c r="T8">
-        <v>0.9999514069093099</v>
+        <v>1.005645673890329</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9988138051108258</v>
+        <v>1.317577232210773</v>
       </c>
       <c r="D9">
-        <v>1.00013913245121</v>
+        <v>0.9149530532083094</v>
       </c>
       <c r="E9">
-        <v>1.000586708137983</v>
+        <v>0.9315266800746854</v>
       </c>
       <c r="F9">
-        <v>0.9988138051108258</v>
+        <v>1.317577232210773</v>
       </c>
       <c r="G9">
-        <v>1.000305225884788</v>
+        <v>0.7721834133857939</v>
       </c>
       <c r="H9">
-        <v>0.9994402818121293</v>
+        <v>1.177309508348869</v>
       </c>
       <c r="I9">
-        <v>1.000586708137983</v>
+        <v>0.9315266800746854</v>
       </c>
       <c r="J9">
-        <v>1.000269620821763</v>
+        <v>0.9197850113665879</v>
       </c>
       <c r="K9">
-        <v>1.000586708137983</v>
+        <v>0.9315266800746854</v>
       </c>
       <c r="L9">
-        <v>1.00013913245121</v>
+        <v>0.9149530532083094</v>
       </c>
       <c r="M9">
-        <v>0.9994764687810178</v>
+        <v>1.116265142709541</v>
       </c>
       <c r="N9">
-        <v>0.9994764687810178</v>
+        <v>1.116265142709541</v>
       </c>
       <c r="O9">
-        <v>0.999464406458055</v>
+        <v>1.136613264589317</v>
       </c>
       <c r="P9">
-        <v>0.9998465485666729</v>
+        <v>1.054685655164589</v>
       </c>
       <c r="Q9">
-        <v>0.9998465485666729</v>
+        <v>1.05468565516459</v>
       </c>
       <c r="R9">
-        <v>1.000031588459501</v>
+        <v>1.023895911392114</v>
       </c>
       <c r="S9">
-        <v>1.000031588459501</v>
+        <v>1.023895911392114</v>
       </c>
       <c r="T9">
-        <v>0.9999257957031165</v>
+        <v>1.005555816432503</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9976065729478348</v>
+        <v>1.308828222817771</v>
       </c>
       <c r="D10">
-        <v>1.000272096707066</v>
+        <v>0.9166873053997434</v>
       </c>
       <c r="E10">
-        <v>1.001199467932849</v>
+        <v>0.9345461070373688</v>
       </c>
       <c r="F10">
-        <v>0.9976065729478348</v>
+        <v>1.308828222817771</v>
       </c>
       <c r="G10">
-        <v>1.000588507459618</v>
+        <v>0.7766112193393604</v>
       </c>
       <c r="H10">
-        <v>0.9988760916319116</v>
+        <v>1.172768149310629</v>
       </c>
       <c r="I10">
-        <v>1.001199467932849</v>
+        <v>0.9345461070373688</v>
       </c>
       <c r="J10">
-        <v>1.000542466782836</v>
+        <v>0.9218939501867813</v>
       </c>
       <c r="K10">
-        <v>1.001199467932849</v>
+        <v>0.9345461070373688</v>
       </c>
       <c r="L10">
-        <v>1.000272096707066</v>
+        <v>0.9166873053997434</v>
       </c>
       <c r="M10">
-        <v>0.9989393348274505</v>
+        <v>1.112757764108757</v>
       </c>
       <c r="N10">
-        <v>0.9989393348274505</v>
+        <v>1.112757764108757</v>
       </c>
       <c r="O10">
-        <v>0.9989182537622708</v>
+        <v>1.132761225842715</v>
       </c>
       <c r="P10">
-        <v>0.9996927125292498</v>
+        <v>1.053353878418295</v>
       </c>
       <c r="Q10">
-        <v>0.9996927125292498</v>
+        <v>1.053353878418294</v>
       </c>
       <c r="R10">
-        <v>1.000069401380149</v>
+        <v>1.023651935573063</v>
       </c>
       <c r="S10">
-        <v>1.000069401380149</v>
+        <v>1.023651935573063</v>
       </c>
       <c r="T10">
-        <v>0.9998475339103526</v>
+        <v>1.005222492348609</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9957002060952713</v>
+        <v>0.9983529645361754</v>
       </c>
       <c r="D11">
-        <v>1.000501389149472</v>
+        <v>1.000793332734722</v>
       </c>
       <c r="E11">
-        <v>1.002131186784621</v>
+        <v>0.9997443545168204</v>
       </c>
       <c r="F11">
-        <v>0.9957002060952713</v>
+        <v>0.9983529645361754</v>
       </c>
       <c r="G11">
-        <v>1.001094690134854</v>
+        <v>1.002370876743794</v>
       </c>
       <c r="H11">
-        <v>0.99797417526236</v>
+        <v>0.9988202900336686</v>
       </c>
       <c r="I11">
-        <v>1.002131186784621</v>
+        <v>0.9997443545168204</v>
       </c>
       <c r="J11">
-        <v>1.000976549279832</v>
+        <v>1.00048750868486</v>
       </c>
       <c r="K11">
-        <v>1.002131186784621</v>
+        <v>0.9997443545168204</v>
       </c>
       <c r="L11">
-        <v>1.000501389149472</v>
+        <v>1.000793332734722</v>
       </c>
       <c r="M11">
-        <v>0.9981007976223718</v>
+        <v>0.9995731486354487</v>
       </c>
       <c r="N11">
-        <v>0.9981007976223718</v>
+        <v>0.9995731486354487</v>
       </c>
       <c r="O11">
-        <v>0.9980585901690345</v>
+        <v>0.9993221957681886</v>
       </c>
       <c r="P11">
-        <v>0.9994442606764548</v>
+        <v>0.9996302172625726</v>
       </c>
       <c r="Q11">
-        <v>0.9994442606764548</v>
+        <v>0.9996302172625725</v>
       </c>
       <c r="R11">
-        <v>1.000115992203496</v>
+        <v>0.9996587515761345</v>
       </c>
       <c r="S11">
-        <v>1.000115992203496</v>
+        <v>0.9996587515761345</v>
       </c>
       <c r="T11">
-        <v>0.9997296994510684</v>
+        <v>1.000094887875007</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9948998809505057</v>
+        <v>1.000132189362153</v>
       </c>
       <c r="D12">
-        <v>1.002520573470642</v>
+        <v>1.000152308666062</v>
       </c>
       <c r="E12">
-        <v>0.9985390216161668</v>
+        <v>0.9996475070313947</v>
       </c>
       <c r="F12">
-        <v>0.9948998809505057</v>
+        <v>1.000132189362153</v>
       </c>
       <c r="G12">
-        <v>1.006068376289979</v>
+        <v>1.000542871000379</v>
       </c>
       <c r="H12">
-        <v>0.9970636620381407</v>
+        <v>0.9999331727746948</v>
       </c>
       <c r="I12">
-        <v>0.9985390216161668</v>
+        <v>0.9996475070313947</v>
       </c>
       <c r="J12">
-        <v>1.001359776493564</v>
+        <v>1.000005135730865</v>
       </c>
       <c r="K12">
-        <v>0.9985390216161668</v>
+        <v>0.9996475070313947</v>
       </c>
       <c r="L12">
-        <v>1.002520573470642</v>
+        <v>1.000152308666062</v>
       </c>
       <c r="M12">
-        <v>0.9987102272105739</v>
+        <v>1.000142249014107</v>
       </c>
       <c r="N12">
-        <v>0.9987102272105739</v>
+        <v>1.000142249014107</v>
       </c>
       <c r="O12">
-        <v>0.9981613721530961</v>
+        <v>1.000072556934303</v>
       </c>
       <c r="P12">
-        <v>0.9986531586791049</v>
+        <v>0.9999773350198699</v>
       </c>
       <c r="Q12">
-        <v>0.9986531586791049</v>
+        <v>0.99997733501987</v>
       </c>
       <c r="R12">
-        <v>0.9986246244133703</v>
+        <v>0.9998948780227511</v>
       </c>
       <c r="S12">
-        <v>0.9986246244133703</v>
+        <v>0.9998948780227511</v>
       </c>
       <c r="T12">
-        <v>1.000075215143166</v>
+        <v>1.000068864094258</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9988911172967685</v>
+        <v>0.9992699385989466</v>
       </c>
       <c r="D13">
-        <v>0.9995739654508984</v>
+        <v>1.000874183247473</v>
       </c>
       <c r="E13">
-        <v>1.002150129736611</v>
+        <v>0.9989853501485672</v>
       </c>
       <c r="F13">
-        <v>0.9988911172967685</v>
+        <v>0.9992699385989466</v>
       </c>
       <c r="G13">
-        <v>1.000107663060355</v>
+        <v>1.002827655841046</v>
       </c>
       <c r="H13">
-        <v>0.9990153688385859</v>
+        <v>0.9990848073782364</v>
       </c>
       <c r="I13">
-        <v>1.002150129736611</v>
+        <v>0.9989853501485672</v>
       </c>
       <c r="J13">
-        <v>1.000325035774882</v>
+        <v>1.000323510038137</v>
       </c>
       <c r="K13">
-        <v>1.002150129736611</v>
+        <v>0.9989853501485672</v>
       </c>
       <c r="L13">
-        <v>0.9995739654508984</v>
+        <v>1.000874183247473</v>
       </c>
       <c r="M13">
-        <v>0.9992325413738334</v>
+        <v>1.00007206092321</v>
       </c>
       <c r="N13">
-        <v>0.9992325413738334</v>
+        <v>1.00007206092321</v>
       </c>
       <c r="O13">
-        <v>0.999160150528751</v>
+        <v>0.9997429764082186</v>
       </c>
       <c r="P13">
-        <v>1.000205070828093</v>
+        <v>0.9997098239983289</v>
       </c>
       <c r="Q13">
-        <v>1.000205070828093</v>
+        <v>0.9997098239983288</v>
       </c>
       <c r="R13">
-        <v>1.000691335555222</v>
+        <v>0.9995287055358884</v>
       </c>
       <c r="S13">
-        <v>1.000691335555222</v>
+        <v>0.9995287055358884</v>
       </c>
       <c r="T13">
-        <v>1.000010546693017</v>
+        <v>1.000227574208734</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6087752629102896</v>
+        <v>0.9924631927868107</v>
       </c>
       <c r="D14">
-        <v>1.118876613314101</v>
+        <v>1.002968497690586</v>
       </c>
       <c r="E14">
-        <v>1.060157332243438</v>
+        <v>0.9999899215510037</v>
       </c>
       <c r="F14">
-        <v>0.6087752629102896</v>
+        <v>0.9924631927868107</v>
       </c>
       <c r="G14">
-        <v>1.328982962628722</v>
+        <v>1.008647525517762</v>
       </c>
       <c r="H14">
-        <v>0.7707925705384401</v>
+        <v>0.9950735213175573</v>
       </c>
       <c r="I14">
-        <v>1.060157332243438</v>
+        <v>0.9999899215510037</v>
       </c>
       <c r="J14">
-        <v>1.101757282267054</v>
+        <v>1.002100114909573</v>
       </c>
       <c r="K14">
-        <v>1.060157332243438</v>
+        <v>0.9999899215510037</v>
       </c>
       <c r="L14">
-        <v>1.118876613314101</v>
+        <v>1.002968497690586</v>
       </c>
       <c r="M14">
-        <v>0.8638259381121953</v>
+        <v>0.9977158452386983</v>
       </c>
       <c r="N14">
-        <v>0.8638259381121953</v>
+        <v>0.9977158452386983</v>
       </c>
       <c r="O14">
-        <v>0.8328148155876103</v>
+        <v>0.9968350705983179</v>
       </c>
       <c r="P14">
-        <v>0.929269736155943</v>
+        <v>0.9984738706761335</v>
       </c>
       <c r="Q14">
-        <v>0.929269736155943</v>
+        <v>0.9984738706761336</v>
       </c>
       <c r="R14">
-        <v>0.9619916351778168</v>
+        <v>0.9988528833948511</v>
       </c>
       <c r="S14">
-        <v>0.9619916351778168</v>
+        <v>0.9988528833948511</v>
       </c>
       <c r="T14">
-        <v>0.9982236706503408</v>
+        <v>1.000207128962215</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8751624151924478</v>
+        <v>0.997304165503581</v>
       </c>
       <c r="D15">
-        <v>1.022439094449975</v>
+        <v>1.001083594361366</v>
       </c>
       <c r="E15">
-        <v>1.046662981219421</v>
+        <v>0.9999578445500481</v>
       </c>
       <c r="F15">
-        <v>0.8751624151924478</v>
+        <v>0.997304165503581</v>
       </c>
       <c r="G15">
-        <v>1.054272234625513</v>
+        <v>1.003164678341133</v>
       </c>
       <c r="H15">
-        <v>0.9374779605329293</v>
+        <v>0.9982228016313306</v>
       </c>
       <c r="I15">
-        <v>1.046662981219421</v>
+        <v>0.9999578445500481</v>
       </c>
       <c r="J15">
-        <v>1.029501459234324</v>
+        <v>1.000755387624541</v>
       </c>
       <c r="K15">
-        <v>1.046662981219421</v>
+        <v>0.9999578445500481</v>
       </c>
       <c r="L15">
-        <v>1.022439094449975</v>
+        <v>1.001083594361366</v>
       </c>
       <c r="M15">
-        <v>0.9488007548212116</v>
+        <v>0.9991938799324734</v>
       </c>
       <c r="N15">
-        <v>0.9488007548212116</v>
+        <v>0.9991938799324734</v>
       </c>
       <c r="O15">
-        <v>0.9450264900584507</v>
+        <v>0.9988701871654259</v>
       </c>
       <c r="P15">
-        <v>0.981421496953948</v>
+        <v>0.9994485348049983</v>
       </c>
       <c r="Q15">
-        <v>0.981421496953948</v>
+        <v>0.9994485348049983</v>
       </c>
       <c r="R15">
-        <v>0.9977318680203162</v>
+        <v>0.9995758622412607</v>
       </c>
       <c r="S15">
-        <v>0.9977318680203162</v>
+        <v>0.9995758622412607</v>
       </c>
       <c r="T15">
-        <v>0.9942526908757684</v>
+        <v>1.000081412002</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9460895172808567</v>
+        <v>0.9947669453698981</v>
       </c>
       <c r="D16">
-        <v>1.020558443478921</v>
+        <v>1.002083198332203</v>
       </c>
       <c r="E16">
-        <v>1.00108782984093</v>
+        <v>0.9999507415950699</v>
       </c>
       <c r="F16">
-        <v>0.9460895172808567</v>
+        <v>0.9947669453698981</v>
       </c>
       <c r="G16">
-        <v>1.059547525903773</v>
+        <v>1.006068130234007</v>
       </c>
       <c r="H16">
-        <v>0.965274253996011</v>
+        <v>0.9965685510549493</v>
       </c>
       <c r="I16">
-        <v>1.00108782984093</v>
+        <v>0.9999507415950699</v>
       </c>
       <c r="J16">
-        <v>1.014881890471883</v>
+        <v>1.001461492032433</v>
       </c>
       <c r="K16">
-        <v>1.00108782984093</v>
+        <v>0.9999507415950699</v>
       </c>
       <c r="L16">
-        <v>1.020558443478921</v>
+        <v>1.002083198332203</v>
       </c>
       <c r="M16">
-        <v>0.9833239803798888</v>
+        <v>0.9984250718510506</v>
       </c>
       <c r="N16">
-        <v>0.9833239803798888</v>
+        <v>0.9984250718510506</v>
       </c>
       <c r="O16">
-        <v>0.9773074049185961</v>
+        <v>0.9978062315856834</v>
       </c>
       <c r="P16">
-        <v>0.989245263533569</v>
+        <v>0.9989336284323903</v>
       </c>
       <c r="Q16">
-        <v>0.989245263533569</v>
+        <v>0.9989336284323903</v>
       </c>
       <c r="R16">
-        <v>0.9922059051104091</v>
+        <v>0.9991879067230602</v>
       </c>
       <c r="S16">
-        <v>0.9922059051104091</v>
+        <v>0.9991879067230602</v>
       </c>
       <c r="T16">
-        <v>1.001239910162062</v>
+        <v>1.000149843103093</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9529164039664825</v>
+        <v>0.9899321270502783</v>
       </c>
       <c r="D17">
-        <v>1.015344404742307</v>
+        <v>1.00396220981187</v>
       </c>
       <c r="E17">
-        <v>1.005617483844522</v>
+        <v>0.9999928971340316</v>
       </c>
       <c r="F17">
-        <v>0.9529164039664825</v>
+        <v>0.9899321270502783</v>
       </c>
       <c r="G17">
-        <v>1.043568046168387</v>
+        <v>1.011543035538078</v>
       </c>
       <c r="H17">
-        <v>0.9714068461945048</v>
+        <v>0.9934203021102838</v>
       </c>
       <c r="I17">
-        <v>1.005617483844522</v>
+        <v>0.9999928971340316</v>
       </c>
       <c r="J17">
-        <v>1.012508574957549</v>
+        <v>1.002804983335708</v>
       </c>
       <c r="K17">
-        <v>1.005617483844522</v>
+        <v>0.9999928971340316</v>
       </c>
       <c r="L17">
-        <v>1.015344404742307</v>
+        <v>1.00396220981187</v>
       </c>
       <c r="M17">
-        <v>0.9841304043543946</v>
+        <v>0.9969471684310741</v>
       </c>
       <c r="N17">
-        <v>0.9841304043543946</v>
+        <v>0.9969471684310741</v>
       </c>
       <c r="O17">
-        <v>0.979889218301098</v>
+        <v>0.995771546324144</v>
       </c>
       <c r="P17">
-        <v>0.9912927641844371</v>
+        <v>0.9979624113320599</v>
       </c>
       <c r="Q17">
-        <v>0.9912927641844371</v>
+        <v>0.9979624113320599</v>
       </c>
       <c r="R17">
-        <v>0.9948739440994584</v>
+        <v>0.9984700327825529</v>
       </c>
       <c r="S17">
-        <v>0.9948739440994584</v>
+        <v>0.9984700327825529</v>
       </c>
       <c r="T17">
-        <v>1.000226959978959</v>
+        <v>1.000275925830042</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9666858731170367</v>
+        <v>0.985205928566087</v>
       </c>
       <c r="D18">
-        <v>1.004935675529343</v>
+        <v>1.005791022152467</v>
       </c>
       <c r="E18">
-        <v>1.014560408947181</v>
+        <v>1.000049077689397</v>
       </c>
       <c r="F18">
-        <v>0.9666858731170367</v>
+        <v>0.985205928566087</v>
       </c>
       <c r="G18">
-        <v>1.011684919487851</v>
+        <v>1.016870907138145</v>
       </c>
       <c r="H18">
-        <v>0.9837051582825377</v>
+        <v>0.9903471716504347</v>
       </c>
       <c r="I18">
-        <v>1.014560408947181</v>
+        <v>1.000049077689397</v>
       </c>
       <c r="J18">
-        <v>1.007741721832312</v>
+        <v>1.00411698620008</v>
       </c>
       <c r="K18">
-        <v>1.014560408947181</v>
+        <v>1.000049077689397</v>
       </c>
       <c r="L18">
-        <v>1.004935675529343</v>
+        <v>1.005791022152467</v>
       </c>
       <c r="M18">
-        <v>0.9858107743231901</v>
+        <v>0.9954984753592768</v>
       </c>
       <c r="N18">
-        <v>0.9858107743231901</v>
+        <v>0.9954984753592768</v>
       </c>
       <c r="O18">
-        <v>0.9851089023096393</v>
+        <v>0.9937813741229961</v>
       </c>
       <c r="P18">
-        <v>0.9953939858645203</v>
+        <v>0.9970153428026501</v>
       </c>
       <c r="Q18">
-        <v>0.9953939858645203</v>
+        <v>0.9970153428026501</v>
       </c>
       <c r="R18">
-        <v>1.000185591635185</v>
+        <v>0.9977737765243369</v>
       </c>
       <c r="S18">
-        <v>1.000185591635185</v>
+        <v>0.9977737765243369</v>
       </c>
       <c r="T18">
-        <v>0.9982189595327103</v>
+        <v>1.000396848899435</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9644106318889518</v>
+        <v>0.9996938170568526</v>
       </c>
       <c r="D19">
-        <v>1.004224833603832</v>
+        <v>1.000035908395295</v>
       </c>
       <c r="E19">
-        <v>1.017536858638707</v>
+        <v>1.000151503336477</v>
       </c>
       <c r="F19">
-        <v>0.9644106318889518</v>
+        <v>0.9996938170568526</v>
       </c>
       <c r="G19">
-        <v>1.009384887695886</v>
+        <v>1.00007891197885</v>
       </c>
       <c r="H19">
-        <v>0.9831403601533563</v>
+        <v>0.9998554550766749</v>
       </c>
       <c r="I19">
-        <v>1.017536858638707</v>
+        <v>1.000151503336477</v>
       </c>
       <c r="J19">
-        <v>1.008105889112769</v>
+        <v>1.000069608904323</v>
       </c>
       <c r="K19">
-        <v>1.017536858638707</v>
+        <v>1.000151503336477</v>
       </c>
       <c r="L19">
-        <v>1.004224833603832</v>
+        <v>1.000035908395295</v>
       </c>
       <c r="M19">
-        <v>0.9843177327463919</v>
+        <v>0.999864862726074</v>
       </c>
       <c r="N19">
-        <v>0.9843177327463919</v>
+        <v>0.999864862726074</v>
       </c>
       <c r="O19">
-        <v>0.98392527521538</v>
+        <v>0.9998617268429409</v>
       </c>
       <c r="P19">
-        <v>0.9953907747104971</v>
+        <v>0.9999604095962086</v>
       </c>
       <c r="Q19">
-        <v>0.9953907747104971</v>
+        <v>0.9999604095962086</v>
       </c>
       <c r="R19">
-        <v>1.00092729569255</v>
+        <v>1.000008183031276</v>
       </c>
       <c r="S19">
-        <v>1.00092729569255</v>
+        <v>1.000008183031276</v>
       </c>
       <c r="T19">
-        <v>0.997800576848917</v>
+        <v>0.999980867458079</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000042578917176</v>
+        <v>0.9992874276652338</v>
       </c>
       <c r="D20">
-        <v>1.000024634121796</v>
+        <v>1.000070524572142</v>
       </c>
       <c r="E20">
-        <v>0.9999303484790252</v>
+        <v>1.000376398451623</v>
       </c>
       <c r="F20">
-        <v>1.000042578917176</v>
+        <v>0.9992874276652338</v>
       </c>
       <c r="G20">
-        <v>1.000096495996724</v>
+        <v>1.000142783161185</v>
       </c>
       <c r="H20">
-        <v>0.9999944073866506</v>
+        <v>0.9996716076786408</v>
       </c>
       <c r="I20">
-        <v>0.9999303484790252</v>
+        <v>1.000376398451623</v>
       </c>
       <c r="J20">
-        <v>0.9999971449134542</v>
+        <v>1.000159699927035</v>
       </c>
       <c r="K20">
-        <v>0.9999303484790252</v>
+        <v>1.000376398451623</v>
       </c>
       <c r="L20">
-        <v>1.000024634121796</v>
+        <v>1.000070524572142</v>
       </c>
       <c r="M20">
-        <v>1.000033606519486</v>
+        <v>0.9996789761186882</v>
       </c>
       <c r="N20">
-        <v>1.000033606519486</v>
+        <v>0.9996789761186882</v>
       </c>
       <c r="O20">
-        <v>1.000020540141874</v>
+        <v>0.9996765199720058</v>
       </c>
       <c r="P20">
-        <v>0.9999991871726657</v>
+        <v>0.9999114502296663</v>
       </c>
       <c r="Q20">
-        <v>0.9999991871726657</v>
+        <v>0.9999114502296663</v>
       </c>
       <c r="R20">
-        <v>0.9999819774992555</v>
+        <v>1.000027687285155</v>
       </c>
       <c r="S20">
-        <v>0.9999819774992555</v>
+        <v>1.000027687285155</v>
       </c>
       <c r="T20">
-        <v>1.000014268302471</v>
+        <v>0.9999514069093099</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9995500686681918</v>
+        <v>0.9988138051108258</v>
       </c>
       <c r="D21">
-        <v>0.9999924605194183</v>
+        <v>1.00013913245121</v>
       </c>
       <c r="E21">
-        <v>1.000325782210845</v>
+        <v>1.000586708137983</v>
       </c>
       <c r="F21">
-        <v>0.9995500686681918</v>
+        <v>0.9988138051108258</v>
       </c>
       <c r="G21">
-        <v>0.999908573746458</v>
+        <v>1.000305225884788</v>
       </c>
       <c r="H21">
-        <v>0.9998340621847307</v>
+        <v>0.9994402818121293</v>
       </c>
       <c r="I21">
-        <v>1.000325782210845</v>
+        <v>1.000586708137983</v>
       </c>
       <c r="J21">
-        <v>1.000089637956667</v>
+        <v>1.000269620821763</v>
       </c>
       <c r="K21">
-        <v>1.000325782210845</v>
+        <v>1.000586708137983</v>
       </c>
       <c r="L21">
-        <v>0.9999924605194183</v>
+        <v>1.00013913245121</v>
       </c>
       <c r="M21">
-        <v>0.9997712645938051</v>
+        <v>0.9994764687810178</v>
       </c>
       <c r="N21">
-        <v>0.9997712645938051</v>
+        <v>0.9994764687810178</v>
       </c>
       <c r="O21">
-        <v>0.9997921971241136</v>
+        <v>0.999464406458055</v>
       </c>
       <c r="P21">
-        <v>0.9999561037994852</v>
+        <v>0.9998465485666729</v>
       </c>
       <c r="Q21">
-        <v>0.9999561037994852</v>
+        <v>0.9998465485666729</v>
       </c>
       <c r="R21">
-        <v>1.000048523402325</v>
+        <v>1.000031588459501</v>
       </c>
       <c r="S21">
-        <v>1.000048523402325</v>
+        <v>1.000031588459501</v>
       </c>
       <c r="T21">
-        <v>0.9999500975477186</v>
+        <v>0.9999257957031165</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9994197505289858</v>
+        <v>0.9976065729478348</v>
       </c>
       <c r="D22">
-        <v>1.000445795524169</v>
+        <v>1.000272096707066</v>
       </c>
       <c r="E22">
-        <v>0.9996198707615427</v>
+        <v>1.001199467932849</v>
       </c>
       <c r="F22">
-        <v>0.9994197505289858</v>
+        <v>0.9976065729478348</v>
       </c>
       <c r="G22">
-        <v>1.001392186952629</v>
+        <v>1.000588507459618</v>
       </c>
       <c r="H22">
-        <v>0.9994639240753249</v>
+        <v>0.9988760916319116</v>
       </c>
       <c r="I22">
-        <v>0.9996198707615427</v>
+        <v>1.001199467932849</v>
       </c>
       <c r="J22">
-        <v>1.000205001447221</v>
+        <v>1.000542466782836</v>
       </c>
       <c r="K22">
-        <v>0.9996198707615427</v>
+        <v>1.001199467932849</v>
       </c>
       <c r="L22">
-        <v>1.000445795524169</v>
+        <v>1.000272096707066</v>
       </c>
       <c r="M22">
-        <v>0.9999327730265775</v>
+        <v>0.9989393348274505</v>
       </c>
       <c r="N22">
-        <v>0.9999327730265775</v>
+        <v>0.9989393348274505</v>
       </c>
       <c r="O22">
-        <v>0.9997764900428265</v>
+        <v>0.9989182537622708</v>
       </c>
       <c r="P22">
-        <v>0.9998284722715658</v>
+        <v>0.9996927125292498</v>
       </c>
       <c r="Q22">
-        <v>0.9998284722715659</v>
+        <v>0.9996927125292498</v>
       </c>
       <c r="R22">
-        <v>0.9997763218940601</v>
+        <v>1.000069401380149</v>
       </c>
       <c r="S22">
-        <v>0.9997763218940601</v>
+        <v>1.000069401380149</v>
       </c>
       <c r="T22">
-        <v>1.000091088214979</v>
+        <v>0.9998475339103526</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9957002060952713</v>
+      </c>
+      <c r="D23">
+        <v>1.000501389149472</v>
+      </c>
+      <c r="E23">
+        <v>1.002131186784621</v>
+      </c>
+      <c r="F23">
+        <v>0.9957002060952713</v>
+      </c>
+      <c r="G23">
+        <v>1.001094690134854</v>
+      </c>
+      <c r="H23">
+        <v>0.99797417526236</v>
+      </c>
+      <c r="I23">
+        <v>1.002131186784621</v>
+      </c>
+      <c r="J23">
+        <v>1.000976549279832</v>
+      </c>
+      <c r="K23">
+        <v>1.002131186784621</v>
+      </c>
+      <c r="L23">
+        <v>1.000501389149472</v>
+      </c>
+      <c r="M23">
+        <v>0.9981007976223718</v>
+      </c>
+      <c r="N23">
+        <v>0.9981007976223718</v>
+      </c>
+      <c r="O23">
+        <v>0.9980585901690345</v>
+      </c>
+      <c r="P23">
+        <v>0.9994442606764548</v>
+      </c>
+      <c r="Q23">
+        <v>0.9994442606764548</v>
+      </c>
+      <c r="R23">
+        <v>1.000115992203496</v>
+      </c>
+      <c r="S23">
+        <v>1.000115992203496</v>
+      </c>
+      <c r="T23">
+        <v>0.9997296994510684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9948998809505057</v>
+      </c>
+      <c r="D24">
+        <v>1.002520573470642</v>
+      </c>
+      <c r="E24">
+        <v>0.9985390216161668</v>
+      </c>
+      <c r="F24">
+        <v>0.9948998809505057</v>
+      </c>
+      <c r="G24">
+        <v>1.006068376289979</v>
+      </c>
+      <c r="H24">
+        <v>0.9970636620381407</v>
+      </c>
+      <c r="I24">
+        <v>0.9985390216161668</v>
+      </c>
+      <c r="J24">
+        <v>1.001359776493564</v>
+      </c>
+      <c r="K24">
+        <v>0.9985390216161668</v>
+      </c>
+      <c r="L24">
+        <v>1.002520573470642</v>
+      </c>
+      <c r="M24">
+        <v>0.9987102272105739</v>
+      </c>
+      <c r="N24">
+        <v>0.9987102272105739</v>
+      </c>
+      <c r="O24">
+        <v>0.9981613721530961</v>
+      </c>
+      <c r="P24">
+        <v>0.9986531586791049</v>
+      </c>
+      <c r="Q24">
+        <v>0.9986531586791049</v>
+      </c>
+      <c r="R24">
+        <v>0.9986246244133703</v>
+      </c>
+      <c r="S24">
+        <v>0.9986246244133703</v>
+      </c>
+      <c r="T24">
+        <v>1.000075215143166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9988911172967685</v>
+      </c>
+      <c r="D25">
+        <v>0.9995739654508984</v>
+      </c>
+      <c r="E25">
+        <v>1.002150129736611</v>
+      </c>
+      <c r="F25">
+        <v>0.9988911172967685</v>
+      </c>
+      <c r="G25">
+        <v>1.000107663060355</v>
+      </c>
+      <c r="H25">
+        <v>0.9990153688385859</v>
+      </c>
+      <c r="I25">
+        <v>1.002150129736611</v>
+      </c>
+      <c r="J25">
+        <v>1.000325035774882</v>
+      </c>
+      <c r="K25">
+        <v>1.002150129736611</v>
+      </c>
+      <c r="L25">
+        <v>0.9995739654508984</v>
+      </c>
+      <c r="M25">
+        <v>0.9992325413738334</v>
+      </c>
+      <c r="N25">
+        <v>0.9992325413738334</v>
+      </c>
+      <c r="O25">
+        <v>0.999160150528751</v>
+      </c>
+      <c r="P25">
+        <v>1.000205070828093</v>
+      </c>
+      <c r="Q25">
+        <v>1.000205070828093</v>
+      </c>
+      <c r="R25">
+        <v>1.000691335555222</v>
+      </c>
+      <c r="S25">
+        <v>1.000691335555222</v>
+      </c>
+      <c r="T25">
+        <v>1.000010546693017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.6087752629102896</v>
+      </c>
+      <c r="D26">
+        <v>1.118876613314101</v>
+      </c>
+      <c r="E26">
+        <v>1.060157332243438</v>
+      </c>
+      <c r="F26">
+        <v>0.6087752629102896</v>
+      </c>
+      <c r="G26">
+        <v>1.328982962628722</v>
+      </c>
+      <c r="H26">
+        <v>0.7707925705384401</v>
+      </c>
+      <c r="I26">
+        <v>1.060157332243438</v>
+      </c>
+      <c r="J26">
+        <v>1.101757282267054</v>
+      </c>
+      <c r="K26">
+        <v>1.060157332243438</v>
+      </c>
+      <c r="L26">
+        <v>1.118876613314101</v>
+      </c>
+      <c r="M26">
+        <v>0.8638259381121953</v>
+      </c>
+      <c r="N26">
+        <v>0.8638259381121953</v>
+      </c>
+      <c r="O26">
+        <v>0.8328148155876103</v>
+      </c>
+      <c r="P26">
+        <v>0.929269736155943</v>
+      </c>
+      <c r="Q26">
+        <v>0.929269736155943</v>
+      </c>
+      <c r="R26">
+        <v>0.9619916351778168</v>
+      </c>
+      <c r="S26">
+        <v>0.9619916351778168</v>
+      </c>
+      <c r="T26">
+        <v>0.9982236706503408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.8751624151924478</v>
+      </c>
+      <c r="D27">
+        <v>1.022439094449975</v>
+      </c>
+      <c r="E27">
+        <v>1.046662981219421</v>
+      </c>
+      <c r="F27">
+        <v>0.8751624151924478</v>
+      </c>
+      <c r="G27">
+        <v>1.054272234625513</v>
+      </c>
+      <c r="H27">
+        <v>0.9374779605329293</v>
+      </c>
+      <c r="I27">
+        <v>1.046662981219421</v>
+      </c>
+      <c r="J27">
+        <v>1.029501459234324</v>
+      </c>
+      <c r="K27">
+        <v>1.046662981219421</v>
+      </c>
+      <c r="L27">
+        <v>1.022439094449975</v>
+      </c>
+      <c r="M27">
+        <v>0.9488007548212116</v>
+      </c>
+      <c r="N27">
+        <v>0.9488007548212116</v>
+      </c>
+      <c r="O27">
+        <v>0.9450264900584507</v>
+      </c>
+      <c r="P27">
+        <v>0.981421496953948</v>
+      </c>
+      <c r="Q27">
+        <v>0.981421496953948</v>
+      </c>
+      <c r="R27">
+        <v>0.9977318680203162</v>
+      </c>
+      <c r="S27">
+        <v>0.9977318680203162</v>
+      </c>
+      <c r="T27">
+        <v>0.9942526908757684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9460895172808567</v>
+      </c>
+      <c r="D28">
+        <v>1.020558443478921</v>
+      </c>
+      <c r="E28">
+        <v>1.00108782984093</v>
+      </c>
+      <c r="F28">
+        <v>0.9460895172808567</v>
+      </c>
+      <c r="G28">
+        <v>1.059547525903773</v>
+      </c>
+      <c r="H28">
+        <v>0.965274253996011</v>
+      </c>
+      <c r="I28">
+        <v>1.00108782984093</v>
+      </c>
+      <c r="J28">
+        <v>1.014881890471883</v>
+      </c>
+      <c r="K28">
+        <v>1.00108782984093</v>
+      </c>
+      <c r="L28">
+        <v>1.020558443478921</v>
+      </c>
+      <c r="M28">
+        <v>0.9833239803798888</v>
+      </c>
+      <c r="N28">
+        <v>0.9833239803798888</v>
+      </c>
+      <c r="O28">
+        <v>0.9773074049185961</v>
+      </c>
+      <c r="P28">
+        <v>0.989245263533569</v>
+      </c>
+      <c r="Q28">
+        <v>0.989245263533569</v>
+      </c>
+      <c r="R28">
+        <v>0.9922059051104091</v>
+      </c>
+      <c r="S28">
+        <v>0.9922059051104091</v>
+      </c>
+      <c r="T28">
+        <v>1.001239910162062</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9529164039664825</v>
+      </c>
+      <c r="D29">
+        <v>1.015344404742307</v>
+      </c>
+      <c r="E29">
+        <v>1.005617483844522</v>
+      </c>
+      <c r="F29">
+        <v>0.9529164039664825</v>
+      </c>
+      <c r="G29">
+        <v>1.043568046168387</v>
+      </c>
+      <c r="H29">
+        <v>0.9714068461945048</v>
+      </c>
+      <c r="I29">
+        <v>1.005617483844522</v>
+      </c>
+      <c r="J29">
+        <v>1.012508574957549</v>
+      </c>
+      <c r="K29">
+        <v>1.005617483844522</v>
+      </c>
+      <c r="L29">
+        <v>1.015344404742307</v>
+      </c>
+      <c r="M29">
+        <v>0.9841304043543946</v>
+      </c>
+      <c r="N29">
+        <v>0.9841304043543946</v>
+      </c>
+      <c r="O29">
+        <v>0.979889218301098</v>
+      </c>
+      <c r="P29">
+        <v>0.9912927641844371</v>
+      </c>
+      <c r="Q29">
+        <v>0.9912927641844371</v>
+      </c>
+      <c r="R29">
+        <v>0.9948739440994584</v>
+      </c>
+      <c r="S29">
+        <v>0.9948739440994584</v>
+      </c>
+      <c r="T29">
+        <v>1.000226959978959</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9666858731170367</v>
+      </c>
+      <c r="D30">
+        <v>1.004935675529343</v>
+      </c>
+      <c r="E30">
+        <v>1.014560408947181</v>
+      </c>
+      <c r="F30">
+        <v>0.9666858731170367</v>
+      </c>
+      <c r="G30">
+        <v>1.011684919487851</v>
+      </c>
+      <c r="H30">
+        <v>0.9837051582825377</v>
+      </c>
+      <c r="I30">
+        <v>1.014560408947181</v>
+      </c>
+      <c r="J30">
+        <v>1.007741721832312</v>
+      </c>
+      <c r="K30">
+        <v>1.014560408947181</v>
+      </c>
+      <c r="L30">
+        <v>1.004935675529343</v>
+      </c>
+      <c r="M30">
+        <v>0.9858107743231901</v>
+      </c>
+      <c r="N30">
+        <v>0.9858107743231901</v>
+      </c>
+      <c r="O30">
+        <v>0.9851089023096393</v>
+      </c>
+      <c r="P30">
+        <v>0.9953939858645203</v>
+      </c>
+      <c r="Q30">
+        <v>0.9953939858645203</v>
+      </c>
+      <c r="R30">
+        <v>1.000185591635185</v>
+      </c>
+      <c r="S30">
+        <v>1.000185591635185</v>
+      </c>
+      <c r="T30">
+        <v>0.9982189595327103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9644106318889518</v>
+      </c>
+      <c r="D31">
+        <v>1.004224833603832</v>
+      </c>
+      <c r="E31">
+        <v>1.017536858638707</v>
+      </c>
+      <c r="F31">
+        <v>0.9644106318889518</v>
+      </c>
+      <c r="G31">
+        <v>1.009384887695886</v>
+      </c>
+      <c r="H31">
+        <v>0.9831403601533563</v>
+      </c>
+      <c r="I31">
+        <v>1.017536858638707</v>
+      </c>
+      <c r="J31">
+        <v>1.008105889112769</v>
+      </c>
+      <c r="K31">
+        <v>1.017536858638707</v>
+      </c>
+      <c r="L31">
+        <v>1.004224833603832</v>
+      </c>
+      <c r="M31">
+        <v>0.9843177327463919</v>
+      </c>
+      <c r="N31">
+        <v>0.9843177327463919</v>
+      </c>
+      <c r="O31">
+        <v>0.98392527521538</v>
+      </c>
+      <c r="P31">
+        <v>0.9953907747104971</v>
+      </c>
+      <c r="Q31">
+        <v>0.9953907747104971</v>
+      </c>
+      <c r="R31">
+        <v>1.00092729569255</v>
+      </c>
+      <c r="S31">
+        <v>1.00092729569255</v>
+      </c>
+      <c r="T31">
+        <v>0.997800576848917</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9366024561643832</v>
+      </c>
+      <c r="D32">
+        <v>1.025791807945205</v>
+      </c>
+      <c r="E32">
+        <v>0.998402360821918</v>
+      </c>
+      <c r="F32">
+        <v>0.9366024561643832</v>
+      </c>
+      <c r="G32">
+        <v>1.075279090958904</v>
+      </c>
+      <c r="H32">
+        <v>0.9580739405479453</v>
+      </c>
+      <c r="I32">
+        <v>0.998402360821918</v>
+      </c>
+      <c r="J32">
+        <v>1.017806560547945</v>
+      </c>
+      <c r="K32">
+        <v>0.998402360821918</v>
+      </c>
+      <c r="L32">
+        <v>1.025791807945205</v>
+      </c>
+      <c r="M32">
+        <v>0.9811971320547943</v>
+      </c>
+      <c r="N32">
+        <v>0.9811971320547943</v>
+      </c>
+      <c r="O32">
+        <v>0.9734894015525114</v>
+      </c>
+      <c r="P32">
+        <v>0.9869322083105022</v>
+      </c>
+      <c r="Q32">
+        <v>0.9869322083105022</v>
+      </c>
+      <c r="R32">
+        <v>0.9897997464383562</v>
+      </c>
+      <c r="S32">
+        <v>0.9897997464383562</v>
+      </c>
+      <c r="T32">
+        <v>1.00199270283105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9580039736842104</v>
+      </c>
+      <c r="D33">
+        <v>1.02012635368421</v>
+      </c>
+      <c r="E33">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="F33">
+        <v>0.9580039736842104</v>
+      </c>
+      <c r="G33">
+        <v>1.060209326842105</v>
+      </c>
+      <c r="H33">
+        <v>0.9699431852631579</v>
+      </c>
+      <c r="I33">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="J33">
+        <v>1.012420848421053</v>
+      </c>
+      <c r="K33">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="L33">
+        <v>1.02012635368421</v>
+      </c>
+      <c r="M33">
+        <v>0.9890651636842103</v>
+      </c>
+      <c r="N33">
+        <v>0.9890651636842103</v>
+      </c>
+      <c r="O33">
+        <v>0.9826911708771928</v>
+      </c>
+      <c r="P33">
+        <v>0.9906089171929823</v>
+      </c>
+      <c r="Q33">
+        <v>0.9906089171929824</v>
+      </c>
+      <c r="R33">
+        <v>0.9913807939473684</v>
+      </c>
+      <c r="S33">
+        <v>0.9913807939473684</v>
+      </c>
+      <c r="T33">
+        <v>1.002400018684211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.267154015789474</v>
+      </c>
+      <c r="D34">
+        <v>0.9249589584210527</v>
+      </c>
+      <c r="E34">
+        <v>0.9488797357894737</v>
+      </c>
+      <c r="F34">
+        <v>1.267154015789474</v>
+      </c>
+      <c r="G34">
+        <v>0.7976590484210528</v>
+      </c>
+      <c r="H34">
+        <v>1.151169221052632</v>
+      </c>
+      <c r="I34">
+        <v>0.9488797357894737</v>
+      </c>
+      <c r="J34">
+        <v>0.9319329431578948</v>
+      </c>
+      <c r="K34">
+        <v>0.9488797357894737</v>
+      </c>
+      <c r="L34">
+        <v>0.9249589584210527</v>
+      </c>
+      <c r="M34">
+        <v>1.096056487105263</v>
+      </c>
+      <c r="N34">
+        <v>1.096056487105263</v>
+      </c>
+      <c r="O34">
+        <v>1.114427398421053</v>
+      </c>
+      <c r="P34">
+        <v>1.04699757</v>
+      </c>
+      <c r="Q34">
+        <v>1.04699757</v>
+      </c>
+      <c r="R34">
+        <v>1.022468111447369</v>
+      </c>
+      <c r="S34">
+        <v>1.022468111447369</v>
+      </c>
+      <c r="T34">
+        <v>1.00362565377193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.8619249023758875</v>
+      </c>
+      <c r="D35">
+        <v>1.015521994963827</v>
+      </c>
+      <c r="E35">
+        <v>1.069565016010477</v>
+      </c>
+      <c r="F35">
+        <v>0.8619249023758875</v>
+      </c>
+      <c r="G35">
+        <v>1.033532571816624</v>
+      </c>
+      <c r="H35">
+        <v>0.9352029790869693</v>
+      </c>
+      <c r="I35">
+        <v>1.069565016010477</v>
+      </c>
+      <c r="J35">
+        <v>1.031277980847698</v>
+      </c>
+      <c r="K35">
+        <v>1.069565016010477</v>
+      </c>
+      <c r="L35">
+        <v>1.015521994963827</v>
+      </c>
+      <c r="M35">
+        <v>0.9387234486698574</v>
+      </c>
+      <c r="N35">
+        <v>0.9387234486698574</v>
+      </c>
+      <c r="O35">
+        <v>0.9375499588088947</v>
+      </c>
+      <c r="P35">
+        <v>0.9823373044500641</v>
+      </c>
+      <c r="Q35">
+        <v>0.9823373044500641</v>
+      </c>
+      <c r="R35">
+        <v>1.004144232340167</v>
+      </c>
+      <c r="S35">
+        <v>1.004144232340167</v>
+      </c>
+      <c r="T35">
+        <v>0.9911709075169139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000042578917176</v>
+      </c>
+      <c r="D36">
+        <v>1.000024634121796</v>
+      </c>
+      <c r="E36">
+        <v>0.9999303484790252</v>
+      </c>
+      <c r="F36">
+        <v>1.000042578917176</v>
+      </c>
+      <c r="G36">
+        <v>1.000096495996724</v>
+      </c>
+      <c r="H36">
+        <v>0.9999944073866506</v>
+      </c>
+      <c r="I36">
+        <v>0.9999303484790252</v>
+      </c>
+      <c r="J36">
+        <v>0.9999971449134542</v>
+      </c>
+      <c r="K36">
+        <v>0.9999303484790252</v>
+      </c>
+      <c r="L36">
+        <v>1.000024634121796</v>
+      </c>
+      <c r="M36">
+        <v>1.000033606519486</v>
+      </c>
+      <c r="N36">
+        <v>1.000033606519486</v>
+      </c>
+      <c r="O36">
+        <v>1.000020540141874</v>
+      </c>
+      <c r="P36">
+        <v>0.9999991871726657</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999991871726657</v>
+      </c>
+      <c r="R36">
+        <v>0.9999819774992555</v>
+      </c>
+      <c r="S36">
+        <v>0.9999819774992555</v>
+      </c>
+      <c r="T36">
+        <v>1.000014268302471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9995500686681918</v>
+      </c>
+      <c r="D37">
+        <v>0.9999924605194183</v>
+      </c>
+      <c r="E37">
+        <v>1.000325782210845</v>
+      </c>
+      <c r="F37">
+        <v>0.9995500686681918</v>
+      </c>
+      <c r="G37">
+        <v>0.999908573746458</v>
+      </c>
+      <c r="H37">
+        <v>0.9998340621847307</v>
+      </c>
+      <c r="I37">
+        <v>1.000325782210845</v>
+      </c>
+      <c r="J37">
+        <v>1.000089637956667</v>
+      </c>
+      <c r="K37">
+        <v>1.000325782210845</v>
+      </c>
+      <c r="L37">
+        <v>0.9999924605194183</v>
+      </c>
+      <c r="M37">
+        <v>0.9997712645938051</v>
+      </c>
+      <c r="N37">
+        <v>0.9997712645938051</v>
+      </c>
+      <c r="O37">
+        <v>0.9997921971241136</v>
+      </c>
+      <c r="P37">
+        <v>0.9999561037994852</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999561037994852</v>
+      </c>
+      <c r="R37">
+        <v>1.000048523402325</v>
+      </c>
+      <c r="S37">
+        <v>1.000048523402325</v>
+      </c>
+      <c r="T37">
+        <v>0.9999500975477186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9994197505289858</v>
+      </c>
+      <c r="D38">
+        <v>1.000445795524169</v>
+      </c>
+      <c r="E38">
+        <v>0.9996198707615427</v>
+      </c>
+      <c r="F38">
+        <v>0.9994197505289858</v>
+      </c>
+      <c r="G38">
+        <v>1.001392186952629</v>
+      </c>
+      <c r="H38">
+        <v>0.9994639240753249</v>
+      </c>
+      <c r="I38">
+        <v>0.9996198707615427</v>
+      </c>
+      <c r="J38">
+        <v>1.000205001447221</v>
+      </c>
+      <c r="K38">
+        <v>0.9996198707615427</v>
+      </c>
+      <c r="L38">
+        <v>1.000445795524169</v>
+      </c>
+      <c r="M38">
+        <v>0.9999327730265775</v>
+      </c>
+      <c r="N38">
+        <v>0.9999327730265775</v>
+      </c>
+      <c r="O38">
+        <v>0.9997764900428265</v>
+      </c>
+      <c r="P38">
+        <v>0.9998284722715658</v>
+      </c>
+      <c r="Q38">
+        <v>0.9998284722715659</v>
+      </c>
+      <c r="R38">
+        <v>0.9997763218940601</v>
+      </c>
+      <c r="S38">
+        <v>0.9997763218940601</v>
+      </c>
+      <c r="T38">
+        <v>1.000091088214979</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.999327947475937</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.001353972106113</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9980968901597128</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.999327947475937</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.004412722089736</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9987748558233439</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9980968901597128</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000404383359204</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9980968901597128</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.001353972106113</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000340959791025</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000340959791025</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9998189251351312</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9995929365805876</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9995929365805875</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9992189249753688</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9992189249753688</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000395128502341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.107421327473863</v>
+      </c>
+      <c r="D40">
+        <v>0.9751864040713005</v>
+      </c>
+      <c r="E40">
+        <v>0.9696587523410402</v>
+      </c>
+      <c r="F40">
+        <v>1.107421327473863</v>
+      </c>
+      <c r="G40">
+        <v>0.9354238996847936</v>
+      </c>
+      <c r="H40">
+        <v>1.057499846191664</v>
+      </c>
+      <c r="I40">
+        <v>0.9696587523410402</v>
+      </c>
+      <c r="J40">
+        <v>0.9735748430797438</v>
+      </c>
+      <c r="K40">
+        <v>0.9696587523410402</v>
+      </c>
+      <c r="L40">
+        <v>0.9751864040713005</v>
+      </c>
+      <c r="M40">
+        <v>1.041303865772582</v>
+      </c>
+      <c r="N40">
+        <v>1.041303865772582</v>
+      </c>
+      <c r="O40">
+        <v>1.046702525912276</v>
+      </c>
+      <c r="P40">
+        <v>1.017422161295401</v>
+      </c>
+      <c r="Q40">
+        <v>1.017422161295401</v>
+      </c>
+      <c r="R40">
+        <v>1.005481309056811</v>
+      </c>
+      <c r="S40">
+        <v>1.005481309056811</v>
+      </c>
+      <c r="T40">
+        <v>1.003127512140401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.053134929605979</v>
+      </c>
+      <c r="D41">
+        <v>0.9849570033417955</v>
+      </c>
+      <c r="E41">
+        <v>0.9899406803088171</v>
+      </c>
+      <c r="F41">
+        <v>1.053134929605979</v>
+      </c>
+      <c r="G41">
+        <v>0.9591010393171456</v>
+      </c>
+      <c r="H41">
+        <v>1.030285227852445</v>
+      </c>
+      <c r="I41">
+        <v>0.9899406803088171</v>
+      </c>
+      <c r="J41">
+        <v>0.986409969059632</v>
+      </c>
+      <c r="K41">
+        <v>0.9899406803088171</v>
+      </c>
+      <c r="L41">
+        <v>0.9849570033417955</v>
+      </c>
+      <c r="M41">
+        <v>1.019045966473887</v>
+      </c>
+      <c r="N41">
+        <v>1.019045966473887</v>
+      </c>
+      <c r="O41">
+        <v>1.022792386933407</v>
+      </c>
+      <c r="P41">
+        <v>1.009344204418864</v>
+      </c>
+      <c r="Q41">
+        <v>1.009344204418864</v>
+      </c>
+      <c r="R41">
+        <v>1.004493323391352</v>
+      </c>
+      <c r="S41">
+        <v>1.004493323391352</v>
+      </c>
+      <c r="T41">
+        <v>1.000638141580969</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.05407939641595</v>
+      </c>
+      <c r="D42">
+        <v>0.9910430117058879</v>
+      </c>
+      <c r="E42">
+        <v>0.978325442049771</v>
+      </c>
+      <c r="F42">
+        <v>1.05407939641595</v>
+      </c>
+      <c r="G42">
+        <v>0.978704051440982</v>
+      </c>
+      <c r="H42">
+        <v>1.026706995443806</v>
+      </c>
+      <c r="I42">
+        <v>0.978325442049771</v>
+      </c>
+      <c r="J42">
+        <v>0.9873352622680349</v>
+      </c>
+      <c r="K42">
+        <v>0.978325442049771</v>
+      </c>
+      <c r="L42">
+        <v>0.9910430117058879</v>
+      </c>
+      <c r="M42">
+        <v>1.022561204060919</v>
+      </c>
+      <c r="N42">
+        <v>1.022561204060919</v>
+      </c>
+      <c r="O42">
+        <v>1.023943134521881</v>
+      </c>
+      <c r="P42">
+        <v>1.007815950057203</v>
+      </c>
+      <c r="Q42">
+        <v>1.007815950057203</v>
+      </c>
+      <c r="R42">
+        <v>1.000443323055345</v>
+      </c>
+      <c r="S42">
+        <v>1.000443323055345</v>
+      </c>
+      <c r="T42">
+        <v>1.002699026554072</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW30.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9999578445500481</v>
+        <v>0.9992874276652338</v>
       </c>
       <c r="D3">
-        <v>0.997304165503581</v>
+        <v>1.000070524572142</v>
       </c>
       <c r="E3">
-        <v>1.001083594361366</v>
+        <v>1.000376398451623</v>
       </c>
       <c r="F3">
-        <v>0.9999578445500481</v>
+        <v>0.9992874276652338</v>
       </c>
       <c r="G3">
-        <v>1.003164678341133</v>
+        <v>1.000142783161185</v>
       </c>
       <c r="H3">
-        <v>0.9982228016313306</v>
+        <v>0.9996716076786408</v>
       </c>
       <c r="I3">
-        <v>1.000755387624541</v>
+        <v>1.000376398451623</v>
       </c>
       <c r="J3">
-        <v>0.997304165503581</v>
+        <v>1.000159699927035</v>
       </c>
       <c r="K3">
-        <v>0.9999578445500481</v>
+        <v>1.000376398451623</v>
       </c>
       <c r="L3">
-        <v>1.001083594361366</v>
+        <v>1.000070524572142</v>
       </c>
       <c r="M3">
-        <v>0.9991938799324734</v>
+        <v>0.9996789761186882</v>
       </c>
       <c r="N3">
-        <v>0.9991938799324734</v>
+        <v>0.9996789761186882</v>
       </c>
       <c r="O3">
-        <v>0.9988701871654259</v>
+        <v>0.9996765199720058</v>
       </c>
       <c r="P3">
-        <v>0.9994485348049983</v>
+        <v>0.9999114502296663</v>
       </c>
       <c r="Q3">
-        <v>0.9994485348049983</v>
+        <v>0.9999114502296663</v>
       </c>
       <c r="R3">
-        <v>0.9995758622412607</v>
+        <v>1.000027687285155</v>
       </c>
       <c r="S3">
-        <v>0.9995758622412607</v>
+        <v>1.000027687285155</v>
       </c>
       <c r="T3">
-        <v>1.000081412002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999514069093099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9999507415950699</v>
+        <v>1.107421327473863</v>
       </c>
       <c r="D4">
-        <v>0.9947669453698981</v>
+        <v>0.9751864040713005</v>
       </c>
       <c r="E4">
-        <v>1.002083198332203</v>
+        <v>0.9696587523410402</v>
       </c>
       <c r="F4">
-        <v>0.9999507415950699</v>
+        <v>1.107421327473863</v>
       </c>
       <c r="G4">
-        <v>1.006068130234007</v>
+        <v>0.9354238996847936</v>
       </c>
       <c r="H4">
-        <v>0.9965685510549493</v>
+        <v>1.057499846191664</v>
       </c>
       <c r="I4">
-        <v>1.001461492032433</v>
+        <v>0.9696587523410402</v>
       </c>
       <c r="J4">
-        <v>0.9947669453698981</v>
+        <v>0.9735748430797438</v>
       </c>
       <c r="K4">
-        <v>0.9999507415950699</v>
+        <v>0.9696587523410402</v>
       </c>
       <c r="L4">
-        <v>1.002083198332203</v>
+        <v>0.9751864040713005</v>
       </c>
       <c r="M4">
-        <v>0.9984250718510506</v>
+        <v>1.041303865772582</v>
       </c>
       <c r="N4">
-        <v>0.9984250718510506</v>
+        <v>1.041303865772582</v>
       </c>
       <c r="O4">
-        <v>0.9978062315856834</v>
+        <v>1.046702525912276</v>
       </c>
       <c r="P4">
-        <v>0.9989336284323903</v>
+        <v>1.017422161295401</v>
       </c>
       <c r="Q4">
-        <v>0.9989336284323903</v>
+        <v>1.017422161295401</v>
       </c>
       <c r="R4">
-        <v>0.9991879067230602</v>
+        <v>1.005481309056811</v>
       </c>
       <c r="S4">
-        <v>0.9991879067230602</v>
+        <v>1.005481309056811</v>
       </c>
       <c r="T4">
-        <v>1.000149843103094</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.003127512140401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9999928971340316</v>
+        <v>0.9652090693083569</v>
       </c>
       <c r="D5">
-        <v>0.9899321270502783</v>
+        <v>1.004788196793948</v>
       </c>
       <c r="E5">
-        <v>1.00396220981187</v>
+        <v>1.015910244610952</v>
       </c>
       <c r="F5">
-        <v>0.9999928971340316</v>
+        <v>0.9652090693083569</v>
       </c>
       <c r="G5">
-        <v>1.011543035538078</v>
+        <v>1.011151041311239</v>
       </c>
       <c r="H5">
-        <v>0.9934203021102838</v>
+        <v>0.9831584884005756</v>
       </c>
       <c r="I5">
-        <v>1.002804983335708</v>
+        <v>1.015910244610952</v>
       </c>
       <c r="J5">
-        <v>0.9899321270502783</v>
+        <v>1.008030776916425</v>
       </c>
       <c r="K5">
-        <v>0.9999928971340316</v>
+        <v>1.015910244610952</v>
       </c>
       <c r="L5">
-        <v>1.00396220981187</v>
+        <v>1.004788196793948</v>
       </c>
       <c r="M5">
-        <v>0.9969471684310741</v>
+        <v>0.9849986330511522</v>
       </c>
       <c r="N5">
-        <v>0.9969471684310741</v>
+        <v>0.9849986330511522</v>
       </c>
       <c r="O5">
-        <v>0.995771546324144</v>
+        <v>0.98438525150096</v>
       </c>
       <c r="P5">
-        <v>0.9979624113320599</v>
+        <v>0.9953025035710855</v>
       </c>
       <c r="Q5">
-        <v>0.9979624113320599</v>
+        <v>0.9953025035710855</v>
       </c>
       <c r="R5">
-        <v>0.9984700327825529</v>
+        <v>1.000454438831052</v>
       </c>
       <c r="S5">
-        <v>0.9984700327825529</v>
+        <v>1.000454438831052</v>
       </c>
       <c r="T5">
-        <v>1.000275925830042</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9980413028902492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000049077689397</v>
+        <v>0.8619249023758875</v>
       </c>
       <c r="D6">
-        <v>0.985205928566087</v>
+        <v>1.015521994963827</v>
       </c>
       <c r="E6">
-        <v>1.005791022152467</v>
+        <v>1.069565016010477</v>
       </c>
       <c r="F6">
-        <v>1.000049077689397</v>
+        <v>0.8619249023758875</v>
       </c>
       <c r="G6">
-        <v>1.016870907138145</v>
+        <v>1.033532571816624</v>
       </c>
       <c r="H6">
-        <v>0.9903471716504347</v>
+        <v>0.9352029790869693</v>
       </c>
       <c r="I6">
-        <v>1.00411698620008</v>
+        <v>1.069565016010477</v>
       </c>
       <c r="J6">
-        <v>0.985205928566087</v>
+        <v>1.031277980847698</v>
       </c>
       <c r="K6">
-        <v>1.000049077689397</v>
+        <v>1.069565016010477</v>
       </c>
       <c r="L6">
-        <v>1.005791022152467</v>
+        <v>1.015521994963827</v>
       </c>
       <c r="M6">
-        <v>0.9954984753592768</v>
+        <v>0.9387234486698574</v>
       </c>
       <c r="N6">
-        <v>0.9954984753592768</v>
+        <v>0.9387234486698574</v>
       </c>
       <c r="O6">
-        <v>0.9937813741229961</v>
+        <v>0.9375499588088947</v>
       </c>
       <c r="P6">
-        <v>0.9970153428026501</v>
+        <v>0.9823373044500641</v>
       </c>
       <c r="Q6">
-        <v>0.9970153428026501</v>
+        <v>0.9823373044500641</v>
       </c>
       <c r="R6">
-        <v>0.9977737765243369</v>
+        <v>1.004144232340167</v>
       </c>
       <c r="S6">
-        <v>0.9977737765243369</v>
+        <v>1.004144232340167</v>
       </c>
       <c r="T6">
-        <v>1.000396848899435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9911709075169139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000151503336477</v>
+        <v>0.9983529645361754</v>
       </c>
       <c r="D7">
-        <v>0.9996938170568527</v>
+        <v>1.000793332734722</v>
       </c>
       <c r="E7">
-        <v>1.000035908395296</v>
+        <v>0.9997443545168204</v>
       </c>
       <c r="F7">
-        <v>1.000151503336477</v>
+        <v>0.9983529645361754</v>
       </c>
       <c r="G7">
-        <v>1.00007891197885</v>
+        <v>1.002370876743794</v>
       </c>
       <c r="H7">
-        <v>0.9998554550766755</v>
+        <v>0.9988202900336686</v>
       </c>
       <c r="I7">
-        <v>1.000069608904323</v>
+        <v>0.9997443545168204</v>
       </c>
       <c r="J7">
-        <v>0.9996938170568527</v>
+        <v>1.00048750868486</v>
       </c>
       <c r="K7">
-        <v>1.000151503336477</v>
+        <v>0.9997443545168204</v>
       </c>
       <c r="L7">
-        <v>1.000035908395296</v>
+        <v>1.000793332734722</v>
       </c>
       <c r="M7">
-        <v>0.9998648627260742</v>
+        <v>0.9995731486354487</v>
       </c>
       <c r="N7">
-        <v>0.9998648627260742</v>
+        <v>0.9995731486354487</v>
       </c>
       <c r="O7">
-        <v>0.9998617268429414</v>
+        <v>0.9993221957681886</v>
       </c>
       <c r="P7">
-        <v>0.9999604095962086</v>
+        <v>0.9996302172625726</v>
       </c>
       <c r="Q7">
-        <v>0.9999604095962086</v>
+        <v>0.9996302172625725</v>
       </c>
       <c r="R7">
-        <v>1.000008183031276</v>
+        <v>0.9996587515761345</v>
       </c>
       <c r="S7">
-        <v>1.000008183031276</v>
+        <v>0.9996587515761345</v>
       </c>
       <c r="T7">
-        <v>0.9999808674580791</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000094887875007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000376398451623</v>
+        <v>0.9995500686681918</v>
       </c>
       <c r="D8">
-        <v>0.9992874276652335</v>
+        <v>0.9999924605194183</v>
       </c>
       <c r="E8">
-        <v>1.000070524572142</v>
+        <v>1.000325782210845</v>
       </c>
       <c r="F8">
-        <v>1.000376398451623</v>
+        <v>0.9995500686681918</v>
       </c>
       <c r="G8">
-        <v>1.000142783161185</v>
+        <v>0.999908573746458</v>
       </c>
       <c r="H8">
-        <v>0.9996716076786412</v>
+        <v>0.9998340621847307</v>
       </c>
       <c r="I8">
-        <v>1.000159699927034</v>
+        <v>1.000325782210845</v>
       </c>
       <c r="J8">
-        <v>0.9992874276652335</v>
+        <v>1.000089637956667</v>
       </c>
       <c r="K8">
-        <v>1.000376398451623</v>
+        <v>1.000325782210845</v>
       </c>
       <c r="L8">
-        <v>1.000070524572142</v>
+        <v>0.9999924605194183</v>
       </c>
       <c r="M8">
-        <v>0.9996789761186877</v>
+        <v>0.9997712645938051</v>
       </c>
       <c r="N8">
-        <v>0.9996789761186877</v>
+        <v>0.9997712645938051</v>
       </c>
       <c r="O8">
-        <v>0.9996765199720056</v>
+        <v>0.9997921971241136</v>
       </c>
       <c r="P8">
-        <v>0.999911450229666</v>
+        <v>0.9999561037994852</v>
       </c>
       <c r="Q8">
-        <v>0.999911450229666</v>
+        <v>0.9999561037994852</v>
       </c>
       <c r="R8">
-        <v>1.000027687285155</v>
+        <v>1.000048523402325</v>
       </c>
       <c r="S8">
-        <v>1.000027687285155</v>
+        <v>1.000048523402325</v>
       </c>
       <c r="T8">
-        <v>0.9999514069093097</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999500975477186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000586708137983</v>
+        <v>0.9947669453698981</v>
       </c>
       <c r="D9">
-        <v>0.9988138051108258</v>
+        <v>1.002083198332203</v>
       </c>
       <c r="E9">
-        <v>1.00013913245121</v>
+        <v>0.9999507415950699</v>
       </c>
       <c r="F9">
-        <v>1.000586708137983</v>
+        <v>0.9947669453698981</v>
       </c>
       <c r="G9">
-        <v>1.000305225884788</v>
+        <v>1.006068130234007</v>
       </c>
       <c r="H9">
-        <v>0.9994402818121293</v>
+        <v>0.9965685510549493</v>
       </c>
       <c r="I9">
-        <v>1.000269620821763</v>
+        <v>0.9999507415950699</v>
       </c>
       <c r="J9">
-        <v>0.9988138051108258</v>
+        <v>1.001461492032433</v>
       </c>
       <c r="K9">
-        <v>1.000586708137983</v>
+        <v>0.9999507415950699</v>
       </c>
       <c r="L9">
-        <v>1.00013913245121</v>
+        <v>1.002083198332203</v>
       </c>
       <c r="M9">
-        <v>0.9994764687810178</v>
+        <v>0.9984250718510506</v>
       </c>
       <c r="N9">
-        <v>0.9994764687810178</v>
+        <v>0.9984250718510506</v>
       </c>
       <c r="O9">
-        <v>0.999464406458055</v>
+        <v>0.9978062315856834</v>
       </c>
       <c r="P9">
-        <v>0.9998465485666729</v>
+        <v>0.9989336284323903</v>
       </c>
       <c r="Q9">
-        <v>0.9998465485666729</v>
+        <v>0.9989336284323903</v>
       </c>
       <c r="R9">
-        <v>1.000031588459501</v>
+        <v>0.9991879067230602</v>
       </c>
       <c r="S9">
-        <v>1.000031588459501</v>
+        <v>0.9991879067230602</v>
       </c>
       <c r="T9">
-        <v>0.9999257957031165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.000149843103093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.001199467932849</v>
+        <v>0.85954233021696</v>
       </c>
       <c r="D10">
-        <v>0.9976065729478348</v>
+        <v>1.015518304714198</v>
       </c>
       <c r="E10">
-        <v>1.000272096707066</v>
+        <v>1.071293246950547</v>
       </c>
       <c r="F10">
-        <v>1.001199467932849</v>
+        <v>0.85954233021696</v>
       </c>
       <c r="G10">
-        <v>1.000588507459618</v>
+        <v>1.033346524396842</v>
       </c>
       <c r="H10">
-        <v>0.9988760916319116</v>
+        <v>0.9342073489857342</v>
       </c>
       <c r="I10">
-        <v>1.000542466782836</v>
+        <v>1.071293246950547</v>
       </c>
       <c r="J10">
-        <v>0.9976065729478348</v>
+        <v>1.031779224623577</v>
       </c>
       <c r="K10">
-        <v>1.001199467932849</v>
+        <v>1.071293246950547</v>
       </c>
       <c r="L10">
-        <v>1.000272096707066</v>
+        <v>1.015518304714198</v>
       </c>
       <c r="M10">
-        <v>0.9989393348274505</v>
+        <v>0.9375303174655788</v>
       </c>
       <c r="N10">
-        <v>0.9989393348274505</v>
+        <v>0.9375303174655788</v>
       </c>
       <c r="O10">
-        <v>0.9989182537622708</v>
+        <v>0.9364226613056306</v>
       </c>
       <c r="P10">
-        <v>0.9996927125292498</v>
+        <v>0.9821179606272349</v>
       </c>
       <c r="Q10">
-        <v>0.9996927125292498</v>
+        <v>0.9821179606272349</v>
       </c>
       <c r="R10">
-        <v>1.000069401380149</v>
+        <v>1.004411782208063</v>
       </c>
       <c r="S10">
-        <v>1.000069401380149</v>
+        <v>1.004411782208063</v>
       </c>
       <c r="T10">
-        <v>0.9998475339103526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9909478299813097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.002131186784621</v>
+        <v>1.149709122389258</v>
       </c>
       <c r="D11">
-        <v>0.9957002060952711</v>
+        <v>0.962656318586401</v>
       </c>
       <c r="E11">
-        <v>1.000501389149472</v>
+        <v>0.9626631655779281</v>
       </c>
       <c r="F11">
-        <v>1.002131186784621</v>
+        <v>1.149709122389258</v>
       </c>
       <c r="G11">
-        <v>1.001094690134854</v>
+        <v>0.901103910771532</v>
       </c>
       <c r="H11">
-        <v>0.99797417526236</v>
+        <v>1.081956257911477</v>
       </c>
       <c r="I11">
-        <v>1.000976549279832</v>
+        <v>0.9626631655779281</v>
       </c>
       <c r="J11">
-        <v>0.9957002060952711</v>
+        <v>0.9626583134052027</v>
       </c>
       <c r="K11">
-        <v>1.002131186784621</v>
+        <v>0.9626631655779281</v>
       </c>
       <c r="L11">
-        <v>1.000501389149472</v>
+        <v>0.962656318586401</v>
       </c>
       <c r="M11">
-        <v>0.9981007976223717</v>
+        <v>1.05618272048783</v>
       </c>
       <c r="N11">
-        <v>0.9981007976223717</v>
+        <v>1.05618272048783</v>
       </c>
       <c r="O11">
-        <v>0.9980585901690344</v>
+        <v>1.064773899629045</v>
       </c>
       <c r="P11">
-        <v>0.9994442606764548</v>
+        <v>1.025009535517863</v>
       </c>
       <c r="Q11">
-        <v>0.9994442606764548</v>
+        <v>1.025009535517863</v>
       </c>
       <c r="R11">
-        <v>1.000115992203496</v>
+        <v>1.009422943032879</v>
       </c>
       <c r="S11">
-        <v>1.000115992203496</v>
+        <v>1.009422943032879</v>
       </c>
       <c r="T11">
-        <v>0.9997296994510684</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.003457848106966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9985390216161668</v>
+        <v>0.9635584367052608</v>
       </c>
       <c r="D12">
-        <v>0.9948998809505056</v>
+        <v>1.003157836042104</v>
       </c>
       <c r="E12">
-        <v>1.002520573470642</v>
+        <v>1.020101996399998</v>
       </c>
       <c r="F12">
-        <v>0.9985390216161668</v>
+        <v>0.9635584367052608</v>
       </c>
       <c r="G12">
-        <v>1.006068376289979</v>
+        <v>1.005984899294737</v>
       </c>
       <c r="H12">
-        <v>0.9970636620381407</v>
+        <v>0.9834354438526309</v>
       </c>
       <c r="I12">
-        <v>1.001359776493563</v>
+        <v>1.020101996399998</v>
       </c>
       <c r="J12">
-        <v>0.9948998809505056</v>
+        <v>1.008097826042104</v>
       </c>
       <c r="K12">
-        <v>0.9985390216161668</v>
+        <v>1.020101996399998</v>
       </c>
       <c r="L12">
-        <v>1.002520573470642</v>
+        <v>1.003157836042104</v>
       </c>
       <c r="M12">
-        <v>0.9987102272105738</v>
+        <v>0.9833581363736825</v>
       </c>
       <c r="N12">
-        <v>0.9987102272105738</v>
+        <v>0.9833581363736825</v>
       </c>
       <c r="O12">
-        <v>0.9981613721530961</v>
+        <v>0.9833839055333321</v>
       </c>
       <c r="P12">
-        <v>0.9986531586791049</v>
+        <v>0.9956060897157876</v>
       </c>
       <c r="Q12">
-        <v>0.9986531586791049</v>
+        <v>0.9956060897157876</v>
       </c>
       <c r="R12">
-        <v>0.9986246244133703</v>
+        <v>1.00173006638684</v>
       </c>
       <c r="S12">
-        <v>0.9986246244133703</v>
+        <v>1.00173006638684</v>
       </c>
       <c r="T12">
-        <v>1.000075215143166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9973894063894724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.002150129736611</v>
+        <v>1.02415004596059</v>
       </c>
       <c r="D13">
-        <v>0.9988911172967685</v>
+        <v>0.9947395758403179</v>
       </c>
       <c r="E13">
-        <v>0.9995739654508985</v>
+        <v>0.9926360763729896</v>
       </c>
       <c r="F13">
-        <v>1.002150129736611</v>
+        <v>1.02415004596059</v>
       </c>
       <c r="G13">
-        <v>1.000107663060355</v>
+        <v>0.9865795702300353</v>
       </c>
       <c r="H13">
-        <v>0.9990153688385859</v>
+        <v>1.01268000324543</v>
       </c>
       <c r="I13">
-        <v>1.000325035774883</v>
+        <v>0.9926360763729896</v>
       </c>
       <c r="J13">
-        <v>0.9988911172967685</v>
+        <v>0.9941263109241205</v>
       </c>
       <c r="K13">
-        <v>1.002150129736611</v>
+        <v>0.9926360763729896</v>
       </c>
       <c r="L13">
-        <v>0.9995739654508985</v>
+        <v>0.9947395758403179</v>
       </c>
       <c r="M13">
-        <v>0.9992325413738334</v>
+        <v>1.009444810900454</v>
       </c>
       <c r="N13">
-        <v>0.9992325413738334</v>
+        <v>1.009444810900454</v>
       </c>
       <c r="O13">
-        <v>0.999160150528751</v>
+        <v>1.010523208348779</v>
       </c>
       <c r="P13">
-        <v>1.000205070828093</v>
+        <v>1.003841899391299</v>
       </c>
       <c r="Q13">
-        <v>1.000205070828093</v>
+        <v>1.003841899391299</v>
       </c>
       <c r="R13">
-        <v>1.000691335555222</v>
+        <v>1.001040443636722</v>
       </c>
       <c r="S13">
-        <v>1.000691335555222</v>
+        <v>1.001040443636722</v>
       </c>
       <c r="T13">
-        <v>1.000010546693017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000818597095581</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.060157332243438</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="D14">
-        <v>0.6087752629102897</v>
+        <v>1.026284799999999</v>
       </c>
       <c r="E14">
-        <v>1.118876613314101</v>
+        <v>1.124812899999999</v>
       </c>
       <c r="F14">
-        <v>1.060157332243438</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="G14">
-        <v>1.328982962628722</v>
+        <v>1.055856</v>
       </c>
       <c r="H14">
-        <v>0.7707925705384401</v>
+        <v>0.886270420000001</v>
       </c>
       <c r="I14">
-        <v>1.101757282267054</v>
+        <v>1.124812899999999</v>
       </c>
       <c r="J14">
-        <v>0.6087752629102897</v>
+        <v>1.055010199999999</v>
       </c>
       <c r="K14">
-        <v>1.060157332243438</v>
+        <v>1.124812899999999</v>
       </c>
       <c r="L14">
-        <v>1.118876613314101</v>
+        <v>1.026284799999999</v>
       </c>
       <c r="M14">
-        <v>0.8638259381121953</v>
+        <v>0.8913281499999997</v>
       </c>
       <c r="N14">
-        <v>0.8638259381121953</v>
+        <v>0.8913281499999997</v>
       </c>
       <c r="O14">
-        <v>0.8328148155876103</v>
+        <v>0.8896422400000001</v>
       </c>
       <c r="P14">
-        <v>0.9292697361559427</v>
+        <v>0.9691563999999996</v>
       </c>
       <c r="Q14">
-        <v>0.9292697361559429</v>
+        <v>0.9691563999999996</v>
       </c>
       <c r="R14">
-        <v>0.9619916351778166</v>
+        <v>1.008070524999999</v>
       </c>
       <c r="S14">
-        <v>0.9619916351778166</v>
+        <v>1.008070524999999</v>
       </c>
       <c r="T14">
-        <v>0.9982236706503408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9841009699999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.046662981219421</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="D15">
-        <v>0.8751624151924478</v>
+        <v>1.0262848</v>
       </c>
       <c r="E15">
-        <v>1.022439094449975</v>
+        <v>1.1248129</v>
       </c>
       <c r="F15">
-        <v>1.046662981219421</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="G15">
-        <v>1.054272234625513</v>
+        <v>1.055856</v>
       </c>
       <c r="H15">
-        <v>0.9374779605329293</v>
+        <v>0.88627042</v>
       </c>
       <c r="I15">
-        <v>1.029501459234324</v>
+        <v>1.1248129</v>
       </c>
       <c r="J15">
-        <v>0.8751624151924478</v>
+        <v>1.0550102</v>
       </c>
       <c r="K15">
-        <v>1.046662981219421</v>
+        <v>1.1248129</v>
       </c>
       <c r="L15">
-        <v>1.022439094449975</v>
+        <v>1.0262848</v>
       </c>
       <c r="M15">
-        <v>0.9488007548212116</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N15">
-        <v>0.9488007548212116</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O15">
-        <v>0.9450264900584507</v>
+        <v>0.88964224</v>
       </c>
       <c r="P15">
-        <v>0.981421496953948</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q15">
-        <v>0.981421496953948</v>
+        <v>0.9691564</v>
       </c>
       <c r="R15">
-        <v>0.9977318680203162</v>
+        <v>1.008070525</v>
       </c>
       <c r="S15">
-        <v>0.9977318680203162</v>
+        <v>1.008070525</v>
       </c>
       <c r="T15">
-        <v>0.9942526908757684</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9841009700000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999303484790252</v>
+        <v>1.8399756</v>
       </c>
       <c r="D16">
-        <v>1.000042578917176</v>
+        <v>0.81025805</v>
       </c>
       <c r="E16">
-        <v>1.000024634121796</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="F16">
-        <v>0.9999303484790252</v>
+        <v>1.8399756</v>
       </c>
       <c r="G16">
-        <v>1.000096495996724</v>
+        <v>0.5123396</v>
       </c>
       <c r="H16">
-        <v>0.9999944073866506</v>
+        <v>1.445007</v>
       </c>
       <c r="I16">
-        <v>0.9999971449134542</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="J16">
-        <v>1.000042578917176</v>
+        <v>0.79454768</v>
       </c>
       <c r="K16">
-        <v>0.9999303484790252</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="L16">
-        <v>1.000024634121796</v>
+        <v>0.81025805</v>
       </c>
       <c r="M16">
-        <v>1.000033606519485</v>
+        <v>1.325116825</v>
       </c>
       <c r="N16">
-        <v>1.000033606519485</v>
+        <v>1.325116825</v>
       </c>
       <c r="O16">
-        <v>1.000020540141874</v>
+        <v>1.365080216666666</v>
       </c>
       <c r="P16">
-        <v>0.9999991871726653</v>
+        <v>1.13553505</v>
       </c>
       <c r="Q16">
-        <v>0.9999991871726653</v>
+        <v>1.13553505</v>
       </c>
       <c r="R16">
-        <v>0.9999819774992553</v>
+        <v>1.0407441625</v>
       </c>
       <c r="S16">
-        <v>0.9999819774992553</v>
+        <v>1.0407441625</v>
       </c>
       <c r="T16">
-        <v>1.000014268302471</v>
+        <v>1.026416571666666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000325782210845</v>
+        <v>0.99042653</v>
       </c>
       <c r="D17">
-        <v>0.9995500686681916</v>
+        <v>1.0074929</v>
       </c>
       <c r="E17">
-        <v>0.9999924605194186</v>
+        <v>0.9915686300000001</v>
       </c>
       <c r="F17">
-        <v>1.000325782210845</v>
+        <v>0.99042653</v>
       </c>
       <c r="G17">
-        <v>0.9999085737464578</v>
+        <v>1.0183129</v>
       </c>
       <c r="H17">
-        <v>0.9998340621847308</v>
+        <v>0.9936811300000001</v>
       </c>
       <c r="I17">
-        <v>1.000089637956667</v>
+        <v>0.9915686300000001</v>
       </c>
       <c r="J17">
-        <v>0.9995500686681916</v>
+        <v>1.0028503</v>
       </c>
       <c r="K17">
-        <v>1.000325782210845</v>
+        <v>0.9915686300000001</v>
       </c>
       <c r="L17">
-        <v>0.9999924605194186</v>
+        <v>1.0074929</v>
       </c>
       <c r="M17">
-        <v>0.9997712645938051</v>
+        <v>0.998959715</v>
       </c>
       <c r="N17">
-        <v>0.9997712645938051</v>
+        <v>0.998959715</v>
       </c>
       <c r="O17">
-        <v>0.9997921971241137</v>
+        <v>0.9972001866666668</v>
       </c>
       <c r="P17">
-        <v>0.9999561037994852</v>
+        <v>0.99649602</v>
       </c>
       <c r="Q17">
-        <v>0.9999561037994852</v>
+        <v>0.99649602</v>
       </c>
       <c r="R17">
-        <v>1.000048523402325</v>
+        <v>0.9952641725000001</v>
       </c>
       <c r="S17">
-        <v>1.000048523402325</v>
+        <v>0.9952641725000001</v>
       </c>
       <c r="T17">
-        <v>0.9999500975477186</v>
+        <v>1.000722065</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9996198707615425</v>
+        <v>0.9366024561643832</v>
       </c>
       <c r="D18">
-        <v>0.9994197505289851</v>
+        <v>1.025791807945205</v>
       </c>
       <c r="E18">
-        <v>1.000445795524169</v>
+        <v>0.998402360821918</v>
       </c>
       <c r="F18">
-        <v>0.9996198707615425</v>
+        <v>0.9366024561643832</v>
       </c>
       <c r="G18">
-        <v>1.001392186952629</v>
+        <v>1.075279090958904</v>
       </c>
       <c r="H18">
-        <v>0.9994639240753249</v>
+        <v>0.9580739405479453</v>
       </c>
       <c r="I18">
-        <v>1.000205001447221</v>
+        <v>0.998402360821918</v>
       </c>
       <c r="J18">
-        <v>0.9994197505289851</v>
+        <v>1.017806560547945</v>
       </c>
       <c r="K18">
-        <v>0.9996198707615425</v>
+        <v>0.998402360821918</v>
       </c>
       <c r="L18">
-        <v>1.000445795524169</v>
+        <v>1.025791807945205</v>
       </c>
       <c r="M18">
-        <v>0.9999327730265772</v>
+        <v>0.9811971320547943</v>
       </c>
       <c r="N18">
-        <v>0.9999327730265772</v>
+        <v>0.9811971320547943</v>
       </c>
       <c r="O18">
-        <v>0.9997764900428265</v>
+        <v>0.9734894015525114</v>
       </c>
       <c r="P18">
-        <v>0.9998284722715657</v>
+        <v>0.9869322083105022</v>
       </c>
       <c r="Q18">
-        <v>0.9998284722715657</v>
+        <v>0.9869322083105022</v>
       </c>
       <c r="R18">
-        <v>0.9997763218940598</v>
+        <v>0.9897997464383562</v>
       </c>
       <c r="S18">
-        <v>0.9997763218940598</v>
+        <v>0.9897997464383562</v>
       </c>
       <c r="T18">
-        <v>1.000091088214979</v>
+        <v>1.00199270283105</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9980968901597131</v>
+        <v>0.9580039736842104</v>
       </c>
       <c r="D19">
-        <v>0.9993279474759367</v>
+        <v>1.02012635368421</v>
       </c>
       <c r="E19">
-        <v>1.001353972106113</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="F19">
-        <v>0.9980968901597131</v>
+        <v>0.9580039736842104</v>
       </c>
       <c r="G19">
-        <v>1.004412722089736</v>
+        <v>1.060209326842105</v>
       </c>
       <c r="H19">
-        <v>0.9987748558233439</v>
+        <v>0.9699431852631579</v>
       </c>
       <c r="I19">
-        <v>1.000404383359204</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="J19">
-        <v>0.9993279474759367</v>
+        <v>1.012420848421053</v>
       </c>
       <c r="K19">
-        <v>0.9980968901597131</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="L19">
-        <v>1.001353972106113</v>
+        <v>1.02012635368421</v>
       </c>
       <c r="M19">
-        <v>1.000340959791025</v>
+        <v>0.9890651636842103</v>
       </c>
       <c r="N19">
-        <v>1.000340959791025</v>
+        <v>0.9890651636842103</v>
       </c>
       <c r="O19">
-        <v>0.999818925135131</v>
+        <v>0.9826911708771928</v>
       </c>
       <c r="P19">
-        <v>0.9995929365805875</v>
+        <v>0.9906089171929823</v>
       </c>
       <c r="Q19">
-        <v>0.9995929365805875</v>
+        <v>0.9906089171929824</v>
       </c>
       <c r="R19">
-        <v>0.9992189249753689</v>
+        <v>0.9913807939473684</v>
       </c>
       <c r="S19">
-        <v>0.9992189249753689</v>
+        <v>0.9913807939473684</v>
       </c>
       <c r="T19">
-        <v>1.000395128502341</v>
+        <v>1.002400018684211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.267154015789474</v>
+      </c>
+      <c r="D20">
+        <v>0.9249589584210527</v>
+      </c>
+      <c r="E20">
+        <v>0.9488797357894737</v>
+      </c>
+      <c r="F20">
+        <v>1.267154015789474</v>
+      </c>
+      <c r="G20">
+        <v>0.7976590484210528</v>
+      </c>
+      <c r="H20">
+        <v>1.151169221052632</v>
+      </c>
+      <c r="I20">
+        <v>0.9488797357894737</v>
+      </c>
+      <c r="J20">
+        <v>0.9319329431578948</v>
+      </c>
+      <c r="K20">
+        <v>0.9488797357894737</v>
+      </c>
+      <c r="L20">
+        <v>0.9249589584210527</v>
+      </c>
+      <c r="M20">
+        <v>1.096056487105263</v>
+      </c>
+      <c r="N20">
+        <v>1.096056487105263</v>
+      </c>
+      <c r="O20">
+        <v>1.114427398421053</v>
+      </c>
+      <c r="P20">
+        <v>1.04699757</v>
+      </c>
+      <c r="Q20">
+        <v>1.04699757</v>
+      </c>
+      <c r="R20">
+        <v>1.022468111447369</v>
+      </c>
+      <c r="S20">
+        <v>1.022468111447369</v>
+      </c>
+      <c r="T20">
+        <v>1.00362565377193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.6087752629102896</v>
+      </c>
+      <c r="D21">
+        <v>1.118876613314101</v>
+      </c>
+      <c r="E21">
+        <v>1.060157332243438</v>
+      </c>
+      <c r="F21">
+        <v>0.6087752629102896</v>
+      </c>
+      <c r="G21">
+        <v>1.328982962628722</v>
+      </c>
+      <c r="H21">
+        <v>0.7707925705384401</v>
+      </c>
+      <c r="I21">
+        <v>1.060157332243438</v>
+      </c>
+      <c r="J21">
+        <v>1.101757282267054</v>
+      </c>
+      <c r="K21">
+        <v>1.060157332243438</v>
+      </c>
+      <c r="L21">
+        <v>1.118876613314101</v>
+      </c>
+      <c r="M21">
+        <v>0.8638259381121953</v>
+      </c>
+      <c r="N21">
+        <v>0.8638259381121953</v>
+      </c>
+      <c r="O21">
+        <v>0.8328148155876103</v>
+      </c>
+      <c r="P21">
+        <v>0.929269736155943</v>
+      </c>
+      <c r="Q21">
+        <v>0.929269736155943</v>
+      </c>
+      <c r="R21">
+        <v>0.9619916351778168</v>
+      </c>
+      <c r="S21">
+        <v>0.9619916351778168</v>
+      </c>
+      <c r="T21">
+        <v>0.9982236706503408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.8751624151924478</v>
+      </c>
+      <c r="D22">
+        <v>1.022439094449975</v>
+      </c>
+      <c r="E22">
+        <v>1.046662981219421</v>
+      </c>
+      <c r="F22">
+        <v>0.8751624151924478</v>
+      </c>
+      <c r="G22">
+        <v>1.054272234625513</v>
+      </c>
+      <c r="H22">
+        <v>0.9374779605329293</v>
+      </c>
+      <c r="I22">
+        <v>1.046662981219421</v>
+      </c>
+      <c r="J22">
+        <v>1.029501459234324</v>
+      </c>
+      <c r="K22">
+        <v>1.046662981219421</v>
+      </c>
+      <c r="L22">
+        <v>1.022439094449975</v>
+      </c>
+      <c r="M22">
+        <v>0.9488007548212116</v>
+      </c>
+      <c r="N22">
+        <v>0.9488007548212116</v>
+      </c>
+      <c r="O22">
+        <v>0.9450264900584507</v>
+      </c>
+      <c r="P22">
+        <v>0.981421496953948</v>
+      </c>
+      <c r="Q22">
+        <v>0.981421496953948</v>
+      </c>
+      <c r="R22">
+        <v>0.9977318680203162</v>
+      </c>
+      <c r="S22">
+        <v>0.9977318680203162</v>
+      </c>
+      <c r="T22">
+        <v>0.9942526908757684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9948998809505057</v>
+      </c>
+      <c r="D23">
+        <v>1.002520573470642</v>
+      </c>
+      <c r="E23">
+        <v>0.9985390216161668</v>
+      </c>
+      <c r="F23">
+        <v>0.9948998809505057</v>
+      </c>
+      <c r="G23">
+        <v>1.006068376289979</v>
+      </c>
+      <c r="H23">
+        <v>0.9970636620381407</v>
+      </c>
+      <c r="I23">
+        <v>0.9985390216161668</v>
+      </c>
+      <c r="J23">
+        <v>1.001359776493564</v>
+      </c>
+      <c r="K23">
+        <v>0.9985390216161668</v>
+      </c>
+      <c r="L23">
+        <v>1.002520573470642</v>
+      </c>
+      <c r="M23">
+        <v>0.9987102272105739</v>
+      </c>
+      <c r="N23">
+        <v>0.9987102272105739</v>
+      </c>
+      <c r="O23">
+        <v>0.9981613721530961</v>
+      </c>
+      <c r="P23">
+        <v>0.9986531586791049</v>
+      </c>
+      <c r="Q23">
+        <v>0.9986531586791049</v>
+      </c>
+      <c r="R23">
+        <v>0.9986246244133703</v>
+      </c>
+      <c r="S23">
+        <v>0.9986246244133703</v>
+      </c>
+      <c r="T23">
+        <v>1.000075215143166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9988911172967685</v>
+      </c>
+      <c r="D24">
+        <v>0.9995739654508984</v>
+      </c>
+      <c r="E24">
+        <v>1.002150129736611</v>
+      </c>
+      <c r="F24">
+        <v>0.9988911172967685</v>
+      </c>
+      <c r="G24">
+        <v>1.000107663060355</v>
+      </c>
+      <c r="H24">
+        <v>0.9990153688385859</v>
+      </c>
+      <c r="I24">
+        <v>1.002150129736611</v>
+      </c>
+      <c r="J24">
+        <v>1.000325035774882</v>
+      </c>
+      <c r="K24">
+        <v>1.002150129736611</v>
+      </c>
+      <c r="L24">
+        <v>0.9995739654508984</v>
+      </c>
+      <c r="M24">
+        <v>0.9992325413738334</v>
+      </c>
+      <c r="N24">
+        <v>0.9992325413738334</v>
+      </c>
+      <c r="O24">
+        <v>0.999160150528751</v>
+      </c>
+      <c r="P24">
+        <v>1.000205070828093</v>
+      </c>
+      <c r="Q24">
+        <v>1.000205070828093</v>
+      </c>
+      <c r="R24">
+        <v>1.000691335555222</v>
+      </c>
+      <c r="S24">
+        <v>1.000691335555222</v>
+      </c>
+      <c r="T24">
+        <v>1.000010546693017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.548079765550479</v>
+      </c>
+      <c r="D25">
+        <v>0.8710206287832202</v>
+      </c>
+      <c r="E25">
+        <v>0.8489902940146982</v>
+      </c>
+      <c r="F25">
+        <v>1.548079765550479</v>
+      </c>
+      <c r="G25">
+        <v>0.6616320149711334</v>
+      </c>
+      <c r="H25">
+        <v>1.295572467635066</v>
+      </c>
+      <c r="I25">
+        <v>0.8489902940146982</v>
+      </c>
+      <c r="J25">
+        <v>0.8645977896334297</v>
+      </c>
+      <c r="K25">
+        <v>0.8489902940146982</v>
+      </c>
+      <c r="L25">
+        <v>0.8710206287832202</v>
+      </c>
+      <c r="M25">
+        <v>1.20955019716685</v>
+      </c>
+      <c r="N25">
+        <v>1.20955019716685</v>
+      </c>
+      <c r="O25">
+        <v>1.238224287322922</v>
+      </c>
+      <c r="P25">
+        <v>1.089363562782799</v>
+      </c>
+      <c r="Q25">
+        <v>1.089363562782799</v>
+      </c>
+      <c r="R25">
+        <v>1.029270245590774</v>
+      </c>
+      <c r="S25">
+        <v>1.029270245590774</v>
+      </c>
+      <c r="T25">
+        <v>1.014982160098004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.137269315054174</v>
+      </c>
+      <c r="D26">
+        <v>0.9623121884336756</v>
+      </c>
+      <c r="E26">
+        <v>0.9711561553077607</v>
+      </c>
+      <c r="F26">
+        <v>1.137269315054174</v>
+      </c>
+      <c r="G26">
+        <v>0.8961192061560384</v>
+      </c>
+      <c r="H26">
+        <v>1.078493950850909</v>
+      </c>
+      <c r="I26">
+        <v>0.9711561553077607</v>
+      </c>
+      <c r="J26">
+        <v>0.9648906036752073</v>
+      </c>
+      <c r="K26">
+        <v>0.9711561553077607</v>
+      </c>
+      <c r="L26">
+        <v>0.9623121884336756</v>
+      </c>
+      <c r="M26">
+        <v>1.049790751743925</v>
+      </c>
+      <c r="N26">
+        <v>1.049790751743925</v>
+      </c>
+      <c r="O26">
+        <v>1.059358484779586</v>
+      </c>
+      <c r="P26">
+        <v>1.023579219598537</v>
+      </c>
+      <c r="Q26">
+        <v>1.023579219598537</v>
+      </c>
+      <c r="R26">
+        <v>1.010473453525843</v>
+      </c>
+      <c r="S26">
+        <v>1.010473453525843</v>
+      </c>
+      <c r="T26">
+        <v>1.001706903246294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9887836093569738</v>
+      </c>
+      <c r="D27">
+        <v>1.003614436883144</v>
+      </c>
+      <c r="E27">
+        <v>1.001232622467071</v>
+      </c>
+      <c r="F27">
+        <v>0.9887836093569738</v>
+      </c>
+      <c r="G27">
+        <v>1.009769760072786</v>
+      </c>
+      <c r="H27">
+        <v>0.9934602645621569</v>
+      </c>
+      <c r="I27">
+        <v>1.001232622467071</v>
+      </c>
+      <c r="J27">
+        <v>1.002920020244579</v>
+      </c>
+      <c r="K27">
+        <v>1.001232622467071</v>
+      </c>
+      <c r="L27">
+        <v>1.003614436883144</v>
+      </c>
+      <c r="M27">
+        <v>0.9961990231200588</v>
+      </c>
+      <c r="N27">
+        <v>0.9961990231200588</v>
+      </c>
+      <c r="O27">
+        <v>0.9952861036007582</v>
+      </c>
+      <c r="P27">
+        <v>0.9978768895690627</v>
+      </c>
+      <c r="Q27">
+        <v>0.997876889569063</v>
+      </c>
+      <c r="R27">
+        <v>0.9987158227935649</v>
+      </c>
+      <c r="S27">
+        <v>0.9987158227935649</v>
+      </c>
+      <c r="T27">
+        <v>0.9999634522644517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.046907819633994</v>
+      </c>
+      <c r="D28">
+        <v>0.9937833612061849</v>
+      </c>
+      <c r="E28">
+        <v>0.9784881533724461</v>
+      </c>
+      <c r="F28">
+        <v>1.046907819633994</v>
+      </c>
+      <c r="G28">
+        <v>0.9867175950455936</v>
+      </c>
+      <c r="H28">
+        <v>1.02204574667391</v>
+      </c>
+      <c r="I28">
+        <v>0.9784881533724461</v>
+      </c>
+      <c r="J28">
+        <v>0.9893241196219088</v>
+      </c>
+      <c r="K28">
+        <v>0.9784881533724461</v>
+      </c>
+      <c r="L28">
+        <v>0.9937833612061849</v>
+      </c>
+      <c r="M28">
+        <v>1.02034559042009</v>
+      </c>
+      <c r="N28">
+        <v>1.02034559042009</v>
+      </c>
+      <c r="O28">
+        <v>1.020912309171363</v>
+      </c>
+      <c r="P28">
+        <v>1.006393111404209</v>
+      </c>
+      <c r="Q28">
+        <v>1.006393111404208</v>
+      </c>
+      <c r="R28">
+        <v>0.9994168718962679</v>
+      </c>
+      <c r="S28">
+        <v>0.9994168718962679</v>
+      </c>
+      <c r="T28">
+        <v>1.002877799259006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.079349398989582</v>
+      </c>
+      <c r="D29">
+        <v>0.9870429699903934</v>
+      </c>
+      <c r="E29">
+        <v>0.9672485777568528</v>
+      </c>
+      <c r="F29">
+        <v>1.079349398989582</v>
+      </c>
+      <c r="G29">
+        <v>0.9677054071578481</v>
+      </c>
+      <c r="H29">
+        <v>1.039908073444392</v>
+      </c>
+      <c r="I29">
+        <v>0.9672485777568528</v>
+      </c>
+      <c r="J29">
+        <v>0.9812720197657602</v>
+      </c>
+      <c r="K29">
+        <v>0.9672485777568528</v>
+      </c>
+      <c r="L29">
+        <v>0.9870429699903934</v>
+      </c>
+      <c r="M29">
+        <v>1.033196184489988</v>
+      </c>
+      <c r="N29">
+        <v>1.033196184489988</v>
+      </c>
+      <c r="O29">
+        <v>1.035433480808122</v>
+      </c>
+      <c r="P29">
+        <v>1.011213648912276</v>
+      </c>
+      <c r="Q29">
+        <v>1.011213648912276</v>
+      </c>
+      <c r="R29">
+        <v>1.00022238112342</v>
+      </c>
+      <c r="S29">
+        <v>1.00022238112342</v>
+      </c>
+      <c r="T29">
+        <v>1.003754407850805</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.107421327473863</v>
+        <v>0.9681978817623736</v>
       </c>
       <c r="D4">
-        <v>0.9751864040713005</v>
+        <v>1.004678467702034</v>
       </c>
       <c r="E4">
-        <v>0.9696587523410402</v>
+        <v>1.013957874257259</v>
       </c>
       <c r="F4">
-        <v>1.107421327473863</v>
+        <v>0.9681978817623736</v>
       </c>
       <c r="G4">
-        <v>0.9354238996847936</v>
+        <v>1.011044505675801</v>
       </c>
       <c r="H4">
-        <v>1.057499846191664</v>
+        <v>0.9844682076787383</v>
       </c>
       <c r="I4">
-        <v>0.9696587523410402</v>
+        <v>1.013957874257259</v>
       </c>
       <c r="J4">
-        <v>0.9735748430797438</v>
+        <v>1.007383834233592</v>
       </c>
       <c r="K4">
-        <v>0.9696587523410402</v>
+        <v>1.013957874257259</v>
       </c>
       <c r="L4">
-        <v>0.9751864040713005</v>
+        <v>1.004678467702034</v>
       </c>
       <c r="M4">
-        <v>1.041303865772582</v>
+        <v>0.986438174732204</v>
       </c>
       <c r="N4">
-        <v>1.041303865772582</v>
+        <v>0.986438174732204</v>
       </c>
       <c r="O4">
-        <v>1.046702525912276</v>
+        <v>0.9857815190477154</v>
       </c>
       <c r="P4">
-        <v>1.017422161295401</v>
+        <v>0.9956114079072225</v>
       </c>
       <c r="Q4">
-        <v>1.017422161295401</v>
+        <v>0.9956114079072226</v>
       </c>
       <c r="R4">
-        <v>1.005481309056811</v>
+        <v>1.000198024494732</v>
       </c>
       <c r="S4">
-        <v>1.005481309056811</v>
+        <v>1.000198024494732</v>
       </c>
       <c r="T4">
-        <v>1.003127512140401</v>
+        <v>0.9982884618849663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9652090693083569</v>
+        <v>1.319937262685466</v>
       </c>
       <c r="D5">
-        <v>1.004788196793948</v>
+        <v>0.9144853086353874</v>
       </c>
       <c r="E5">
-        <v>1.015910244610952</v>
+        <v>0.9307118939630491</v>
       </c>
       <c r="F5">
-        <v>0.9652090693083569</v>
+        <v>1.319937262685466</v>
       </c>
       <c r="G5">
-        <v>1.011151041311239</v>
+        <v>0.7709887543065238</v>
       </c>
       <c r="H5">
-        <v>0.9831584884005756</v>
+        <v>1.178534735263661</v>
       </c>
       <c r="I5">
-        <v>1.015910244610952</v>
+        <v>0.9307118939630491</v>
       </c>
       <c r="J5">
-        <v>1.008030776916425</v>
+        <v>0.9192160884878839</v>
       </c>
       <c r="K5">
-        <v>1.015910244610952</v>
+        <v>0.9307118939630491</v>
       </c>
       <c r="L5">
-        <v>1.004788196793948</v>
+        <v>0.9144853086353874</v>
       </c>
       <c r="M5">
-        <v>0.9849986330511522</v>
+        <v>1.117211285660427</v>
       </c>
       <c r="N5">
-        <v>0.9849986330511522</v>
+        <v>1.117211285660427</v>
       </c>
       <c r="O5">
-        <v>0.98438525150096</v>
+        <v>1.137652435528172</v>
       </c>
       <c r="P5">
-        <v>0.9953025035710855</v>
+        <v>1.055044821761301</v>
       </c>
       <c r="Q5">
-        <v>0.9953025035710855</v>
+        <v>1.055044821761301</v>
       </c>
       <c r="R5">
-        <v>1.000454438831052</v>
+        <v>1.023961589811738</v>
       </c>
       <c r="S5">
-        <v>1.000454438831052</v>
+        <v>1.023961589811738</v>
       </c>
       <c r="T5">
-        <v>0.9980413028902492</v>
+        <v>1.005645673890329</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8619249023758875</v>
+        <v>1.107421327473863</v>
       </c>
       <c r="D6">
-        <v>1.015521994963827</v>
+        <v>0.9751864040713005</v>
       </c>
       <c r="E6">
-        <v>1.069565016010477</v>
+        <v>0.9696587523410402</v>
       </c>
       <c r="F6">
-        <v>0.8619249023758875</v>
+        <v>1.107421327473863</v>
       </c>
       <c r="G6">
-        <v>1.033532571816624</v>
+        <v>0.9354238996847936</v>
       </c>
       <c r="H6">
-        <v>0.9352029790869693</v>
+        <v>1.057499846191664</v>
       </c>
       <c r="I6">
-        <v>1.069565016010477</v>
+        <v>0.9696587523410402</v>
       </c>
       <c r="J6">
-        <v>1.031277980847698</v>
+        <v>0.9735748430797438</v>
       </c>
       <c r="K6">
-        <v>1.069565016010477</v>
+        <v>0.9696587523410402</v>
       </c>
       <c r="L6">
-        <v>1.015521994963827</v>
+        <v>0.9751864040713005</v>
       </c>
       <c r="M6">
-        <v>0.9387234486698574</v>
+        <v>1.041303865772582</v>
       </c>
       <c r="N6">
-        <v>0.9387234486698574</v>
+        <v>1.041303865772582</v>
       </c>
       <c r="O6">
-        <v>0.9375499588088947</v>
+        <v>1.046702525912276</v>
       </c>
       <c r="P6">
-        <v>0.9823373044500641</v>
+        <v>1.017422161295401</v>
       </c>
       <c r="Q6">
-        <v>0.9823373044500641</v>
+        <v>1.017422161295401</v>
       </c>
       <c r="R6">
-        <v>1.004144232340167</v>
+        <v>1.005481309056811</v>
       </c>
       <c r="S6">
-        <v>1.004144232340167</v>
+        <v>1.005481309056811</v>
       </c>
       <c r="T6">
-        <v>0.9911709075169139</v>
+        <v>1.003127512140401</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9983529645361754</v>
+        <v>0.9652090693083569</v>
       </c>
       <c r="D7">
-        <v>1.000793332734722</v>
+        <v>1.004788196793948</v>
       </c>
       <c r="E7">
-        <v>0.9997443545168204</v>
+        <v>1.015910244610952</v>
       </c>
       <c r="F7">
-        <v>0.9983529645361754</v>
+        <v>0.9652090693083569</v>
       </c>
       <c r="G7">
-        <v>1.002370876743794</v>
+        <v>1.011151041311239</v>
       </c>
       <c r="H7">
-        <v>0.9988202900336686</v>
+        <v>0.9831584884005756</v>
       </c>
       <c r="I7">
-        <v>0.9997443545168204</v>
+        <v>1.015910244610952</v>
       </c>
       <c r="J7">
-        <v>1.00048750868486</v>
+        <v>1.008030776916425</v>
       </c>
       <c r="K7">
-        <v>0.9997443545168204</v>
+        <v>1.015910244610952</v>
       </c>
       <c r="L7">
-        <v>1.000793332734722</v>
+        <v>1.004788196793948</v>
       </c>
       <c r="M7">
-        <v>0.9995731486354487</v>
+        <v>0.9849986330511522</v>
       </c>
       <c r="N7">
-        <v>0.9995731486354487</v>
+        <v>0.9849986330511522</v>
       </c>
       <c r="O7">
-        <v>0.9993221957681886</v>
+        <v>0.98438525150096</v>
       </c>
       <c r="P7">
-        <v>0.9996302172625726</v>
+        <v>0.9953025035710855</v>
       </c>
       <c r="Q7">
-        <v>0.9996302172625725</v>
+        <v>0.9953025035710855</v>
       </c>
       <c r="R7">
-        <v>0.9996587515761345</v>
+        <v>1.000454438831052</v>
       </c>
       <c r="S7">
-        <v>0.9996587515761345</v>
+        <v>1.000454438831052</v>
       </c>
       <c r="T7">
-        <v>1.000094887875007</v>
+        <v>0.9980413028902492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9995500686681918</v>
+        <v>0.8619249023758875</v>
       </c>
       <c r="D8">
-        <v>0.9999924605194183</v>
+        <v>1.015521994963827</v>
       </c>
       <c r="E8">
-        <v>1.000325782210845</v>
+        <v>1.069565016010477</v>
       </c>
       <c r="F8">
-        <v>0.9995500686681918</v>
+        <v>0.8619249023758875</v>
       </c>
       <c r="G8">
-        <v>0.999908573746458</v>
+        <v>1.033532571816624</v>
       </c>
       <c r="H8">
-        <v>0.9998340621847307</v>
+        <v>0.9352029790869693</v>
       </c>
       <c r="I8">
-        <v>1.000325782210845</v>
+        <v>1.069565016010477</v>
       </c>
       <c r="J8">
-        <v>1.000089637956667</v>
+        <v>1.031277980847698</v>
       </c>
       <c r="K8">
-        <v>1.000325782210845</v>
+        <v>1.069565016010477</v>
       </c>
       <c r="L8">
-        <v>0.9999924605194183</v>
+        <v>1.015521994963827</v>
       </c>
       <c r="M8">
-        <v>0.9997712645938051</v>
+        <v>0.9387234486698574</v>
       </c>
       <c r="N8">
-        <v>0.9997712645938051</v>
+        <v>0.9387234486698574</v>
       </c>
       <c r="O8">
-        <v>0.9997921971241136</v>
+        <v>0.9375499588088947</v>
       </c>
       <c r="P8">
-        <v>0.9999561037994852</v>
+        <v>0.9823373044500641</v>
       </c>
       <c r="Q8">
-        <v>0.9999561037994852</v>
+        <v>0.9823373044500641</v>
       </c>
       <c r="R8">
-        <v>1.000048523402325</v>
+        <v>1.004144232340167</v>
       </c>
       <c r="S8">
-        <v>1.000048523402325</v>
+        <v>1.004144232340167</v>
       </c>
       <c r="T8">
-        <v>0.9999500975477186</v>
+        <v>0.9911709075169139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9947669453698981</v>
+        <v>0.9983529645361754</v>
       </c>
       <c r="D9">
-        <v>1.002083198332203</v>
+        <v>1.000793332734722</v>
       </c>
       <c r="E9">
-        <v>0.9999507415950699</v>
+        <v>0.9997443545168204</v>
       </c>
       <c r="F9">
-        <v>0.9947669453698981</v>
+        <v>0.9983529645361754</v>
       </c>
       <c r="G9">
-        <v>1.006068130234007</v>
+        <v>1.002370876743794</v>
       </c>
       <c r="H9">
-        <v>0.9965685510549493</v>
+        <v>0.9988202900336686</v>
       </c>
       <c r="I9">
-        <v>0.9999507415950699</v>
+        <v>0.9997443545168204</v>
       </c>
       <c r="J9">
-        <v>1.001461492032433</v>
+        <v>1.00048750868486</v>
       </c>
       <c r="K9">
-        <v>0.9999507415950699</v>
+        <v>0.9997443545168204</v>
       </c>
       <c r="L9">
-        <v>1.002083198332203</v>
+        <v>1.000793332734722</v>
       </c>
       <c r="M9">
-        <v>0.9984250718510506</v>
+        <v>0.9995731486354487</v>
       </c>
       <c r="N9">
-        <v>0.9984250718510506</v>
+        <v>0.9995731486354487</v>
       </c>
       <c r="O9">
-        <v>0.9978062315856834</v>
+        <v>0.9993221957681886</v>
       </c>
       <c r="P9">
-        <v>0.9989336284323903</v>
+        <v>0.9996302172625726</v>
       </c>
       <c r="Q9">
-        <v>0.9989336284323903</v>
+        <v>0.9996302172625725</v>
       </c>
       <c r="R9">
-        <v>0.9991879067230602</v>
+        <v>0.9996587515761345</v>
       </c>
       <c r="S9">
-        <v>0.9991879067230602</v>
+        <v>0.9996587515761345</v>
       </c>
       <c r="T9">
-        <v>1.000149843103093</v>
+        <v>1.000094887875007</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.85954233021696</v>
+        <v>0.9995500686681918</v>
       </c>
       <c r="D10">
-        <v>1.015518304714198</v>
+        <v>0.9999924605194183</v>
       </c>
       <c r="E10">
-        <v>1.071293246950547</v>
+        <v>1.000325782210845</v>
       </c>
       <c r="F10">
-        <v>0.85954233021696</v>
+        <v>0.9995500686681918</v>
       </c>
       <c r="G10">
-        <v>1.033346524396842</v>
+        <v>0.999908573746458</v>
       </c>
       <c r="H10">
-        <v>0.9342073489857342</v>
+        <v>0.9998340621847307</v>
       </c>
       <c r="I10">
-        <v>1.071293246950547</v>
+        <v>1.000325782210845</v>
       </c>
       <c r="J10">
-        <v>1.031779224623577</v>
+        <v>1.000089637956667</v>
       </c>
       <c r="K10">
-        <v>1.071293246950547</v>
+        <v>1.000325782210845</v>
       </c>
       <c r="L10">
-        <v>1.015518304714198</v>
+        <v>0.9999924605194183</v>
       </c>
       <c r="M10">
-        <v>0.9375303174655788</v>
+        <v>0.9997712645938051</v>
       </c>
       <c r="N10">
-        <v>0.9375303174655788</v>
+        <v>0.9997712645938051</v>
       </c>
       <c r="O10">
-        <v>0.9364226613056306</v>
+        <v>0.9997921971241136</v>
       </c>
       <c r="P10">
-        <v>0.9821179606272349</v>
+        <v>0.9999561037994852</v>
       </c>
       <c r="Q10">
-        <v>0.9821179606272349</v>
+        <v>0.9999561037994852</v>
       </c>
       <c r="R10">
-        <v>1.004411782208063</v>
+        <v>1.000048523402325</v>
       </c>
       <c r="S10">
-        <v>1.004411782208063</v>
+        <v>1.000048523402325</v>
       </c>
       <c r="T10">
-        <v>0.9909478299813097</v>
+        <v>0.9999500975477186</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.149709122389258</v>
+        <v>0.9947669453698981</v>
       </c>
       <c r="D11">
-        <v>0.962656318586401</v>
+        <v>1.002083198332203</v>
       </c>
       <c r="E11">
-        <v>0.9626631655779281</v>
+        <v>0.9999507415950699</v>
       </c>
       <c r="F11">
-        <v>1.149709122389258</v>
+        <v>0.9947669453698981</v>
       </c>
       <c r="G11">
-        <v>0.901103910771532</v>
+        <v>1.006068130234007</v>
       </c>
       <c r="H11">
-        <v>1.081956257911477</v>
+        <v>0.9965685510549493</v>
       </c>
       <c r="I11">
-        <v>0.9626631655779281</v>
+        <v>0.9999507415950699</v>
       </c>
       <c r="J11">
-        <v>0.9626583134052027</v>
+        <v>1.001461492032433</v>
       </c>
       <c r="K11">
-        <v>0.9626631655779281</v>
+        <v>0.9999507415950699</v>
       </c>
       <c r="L11">
-        <v>0.962656318586401</v>
+        <v>1.002083198332203</v>
       </c>
       <c r="M11">
-        <v>1.05618272048783</v>
+        <v>0.9984250718510506</v>
       </c>
       <c r="N11">
-        <v>1.05618272048783</v>
+        <v>0.9984250718510506</v>
       </c>
       <c r="O11">
-        <v>1.064773899629045</v>
+        <v>0.9978062315856834</v>
       </c>
       <c r="P11">
-        <v>1.025009535517863</v>
+        <v>0.9989336284323903</v>
       </c>
       <c r="Q11">
-        <v>1.025009535517863</v>
+        <v>0.9989336284323903</v>
       </c>
       <c r="R11">
-        <v>1.009422943032879</v>
+        <v>0.9991879067230602</v>
       </c>
       <c r="S11">
-        <v>1.009422943032879</v>
+        <v>0.9991879067230602</v>
       </c>
       <c r="T11">
-        <v>1.003457848106966</v>
+        <v>1.000149843103093</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9635584367052608</v>
+        <v>0.85954233021696</v>
       </c>
       <c r="D12">
-        <v>1.003157836042104</v>
+        <v>1.015518304714198</v>
       </c>
       <c r="E12">
-        <v>1.020101996399998</v>
+        <v>1.071293246950547</v>
       </c>
       <c r="F12">
-        <v>0.9635584367052608</v>
+        <v>0.85954233021696</v>
       </c>
       <c r="G12">
-        <v>1.005984899294737</v>
+        <v>1.033346524396842</v>
       </c>
       <c r="H12">
-        <v>0.9834354438526309</v>
+        <v>0.9342073489857342</v>
       </c>
       <c r="I12">
-        <v>1.020101996399998</v>
+        <v>1.071293246950547</v>
       </c>
       <c r="J12">
-        <v>1.008097826042104</v>
+        <v>1.031779224623577</v>
       </c>
       <c r="K12">
-        <v>1.020101996399998</v>
+        <v>1.071293246950547</v>
       </c>
       <c r="L12">
-        <v>1.003157836042104</v>
+        <v>1.015518304714198</v>
       </c>
       <c r="M12">
-        <v>0.9833581363736825</v>
+        <v>0.9375303174655788</v>
       </c>
       <c r="N12">
-        <v>0.9833581363736825</v>
+        <v>0.9375303174655788</v>
       </c>
       <c r="O12">
-        <v>0.9833839055333321</v>
+        <v>0.9364226613056306</v>
       </c>
       <c r="P12">
-        <v>0.9956060897157876</v>
+        <v>0.9821179606272349</v>
       </c>
       <c r="Q12">
-        <v>0.9956060897157876</v>
+        <v>0.9821179606272349</v>
       </c>
       <c r="R12">
-        <v>1.00173006638684</v>
+        <v>1.004411782208063</v>
       </c>
       <c r="S12">
-        <v>1.00173006638684</v>
+        <v>1.004411782208063</v>
       </c>
       <c r="T12">
-        <v>0.9973894063894724</v>
+        <v>0.9909478299813097</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.02415004596059</v>
+        <v>1.149709122389258</v>
       </c>
       <c r="D13">
-        <v>0.9947395758403179</v>
+        <v>0.962656318586401</v>
       </c>
       <c r="E13">
-        <v>0.9926360763729896</v>
+        <v>0.9626631655779281</v>
       </c>
       <c r="F13">
-        <v>1.02415004596059</v>
+        <v>1.149709122389258</v>
       </c>
       <c r="G13">
-        <v>0.9865795702300353</v>
+        <v>0.901103910771532</v>
       </c>
       <c r="H13">
-        <v>1.01268000324543</v>
+        <v>1.081956257911477</v>
       </c>
       <c r="I13">
-        <v>0.9926360763729896</v>
+        <v>0.9626631655779281</v>
       </c>
       <c r="J13">
-        <v>0.9941263109241205</v>
+        <v>0.9626583134052027</v>
       </c>
       <c r="K13">
-        <v>0.9926360763729896</v>
+        <v>0.9626631655779281</v>
       </c>
       <c r="L13">
-        <v>0.9947395758403179</v>
+        <v>0.962656318586401</v>
       </c>
       <c r="M13">
-        <v>1.009444810900454</v>
+        <v>1.05618272048783</v>
       </c>
       <c r="N13">
-        <v>1.009444810900454</v>
+        <v>1.05618272048783</v>
       </c>
       <c r="O13">
-        <v>1.010523208348779</v>
+        <v>1.064773899629045</v>
       </c>
       <c r="P13">
-        <v>1.003841899391299</v>
+        <v>1.025009535517863</v>
       </c>
       <c r="Q13">
-        <v>1.003841899391299</v>
+        <v>1.025009535517863</v>
       </c>
       <c r="R13">
-        <v>1.001040443636722</v>
+        <v>1.009422943032879</v>
       </c>
       <c r="S13">
-        <v>1.001040443636722</v>
+        <v>1.009422943032879</v>
       </c>
       <c r="T13">
-        <v>1.000818597095581</v>
+        <v>1.003457848106966</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7563715000000001</v>
+        <v>0.9635584367052608</v>
       </c>
       <c r="D14">
-        <v>1.026284799999999</v>
+        <v>1.003157836042104</v>
       </c>
       <c r="E14">
-        <v>1.124812899999999</v>
+        <v>1.020101996399998</v>
       </c>
       <c r="F14">
-        <v>0.7563715000000001</v>
+        <v>0.9635584367052608</v>
       </c>
       <c r="G14">
-        <v>1.055856</v>
+        <v>1.005984899294737</v>
       </c>
       <c r="H14">
-        <v>0.886270420000001</v>
+        <v>0.9834354438526309</v>
       </c>
       <c r="I14">
-        <v>1.124812899999999</v>
+        <v>1.020101996399998</v>
       </c>
       <c r="J14">
-        <v>1.055010199999999</v>
+        <v>1.008097826042104</v>
       </c>
       <c r="K14">
-        <v>1.124812899999999</v>
+        <v>1.020101996399998</v>
       </c>
       <c r="L14">
-        <v>1.026284799999999</v>
+        <v>1.003157836042104</v>
       </c>
       <c r="M14">
-        <v>0.8913281499999997</v>
+        <v>0.9833581363736825</v>
       </c>
       <c r="N14">
-        <v>0.8913281499999997</v>
+        <v>0.9833581363736825</v>
       </c>
       <c r="O14">
-        <v>0.8896422400000001</v>
+        <v>0.9833839055333321</v>
       </c>
       <c r="P14">
-        <v>0.9691563999999996</v>
+        <v>0.9956060897157876</v>
       </c>
       <c r="Q14">
-        <v>0.9691563999999996</v>
+        <v>0.9956060897157876</v>
       </c>
       <c r="R14">
-        <v>1.008070524999999</v>
+        <v>1.00173006638684</v>
       </c>
       <c r="S14">
-        <v>1.008070524999999</v>
+        <v>1.00173006638684</v>
       </c>
       <c r="T14">
-        <v>0.9841009699999997</v>
+        <v>0.9973894063894724</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7563714999999999</v>
+        <v>1.02415004596059</v>
       </c>
       <c r="D15">
-        <v>1.0262848</v>
+        <v>0.9947395758403179</v>
       </c>
       <c r="E15">
-        <v>1.1248129</v>
+        <v>0.9926360763729896</v>
       </c>
       <c r="F15">
-        <v>0.7563714999999999</v>
+        <v>1.02415004596059</v>
       </c>
       <c r="G15">
-        <v>1.055856</v>
+        <v>0.9865795702300353</v>
       </c>
       <c r="H15">
-        <v>0.88627042</v>
+        <v>1.01268000324543</v>
       </c>
       <c r="I15">
-        <v>1.1248129</v>
+        <v>0.9926360763729896</v>
       </c>
       <c r="J15">
-        <v>1.0550102</v>
+        <v>0.9941263109241205</v>
       </c>
       <c r="K15">
-        <v>1.1248129</v>
+        <v>0.9926360763729896</v>
       </c>
       <c r="L15">
-        <v>1.0262848</v>
+        <v>0.9947395758403179</v>
       </c>
       <c r="M15">
-        <v>0.8913281499999999</v>
+        <v>1.009444810900454</v>
       </c>
       <c r="N15">
-        <v>0.8913281499999999</v>
+        <v>1.009444810900454</v>
       </c>
       <c r="O15">
-        <v>0.88964224</v>
+        <v>1.010523208348779</v>
       </c>
       <c r="P15">
-        <v>0.9691563999999998</v>
+        <v>1.003841899391299</v>
       </c>
       <c r="Q15">
-        <v>0.9691564</v>
+        <v>1.003841899391299</v>
       </c>
       <c r="R15">
-        <v>1.008070525</v>
+        <v>1.001040443636722</v>
       </c>
       <c r="S15">
-        <v>1.008070525</v>
+        <v>1.001040443636722</v>
       </c>
       <c r="T15">
-        <v>0.9841009700000001</v>
+        <v>1.000818597095581</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.8399756</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="D16">
-        <v>0.81025805</v>
+        <v>1.026284799999999</v>
       </c>
       <c r="E16">
-        <v>0.7563714999999999</v>
+        <v>1.124812899999999</v>
       </c>
       <c r="F16">
-        <v>1.8399756</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="G16">
-        <v>0.5123396</v>
+        <v>1.055856</v>
       </c>
       <c r="H16">
-        <v>1.445007</v>
+        <v>0.886270420000001</v>
       </c>
       <c r="I16">
-        <v>0.7563714999999999</v>
+        <v>1.124812899999999</v>
       </c>
       <c r="J16">
-        <v>0.79454768</v>
+        <v>1.055010199999999</v>
       </c>
       <c r="K16">
-        <v>0.7563714999999999</v>
+        <v>1.124812899999999</v>
       </c>
       <c r="L16">
-        <v>0.81025805</v>
+        <v>1.026284799999999</v>
       </c>
       <c r="M16">
-        <v>1.325116825</v>
+        <v>0.8913281499999997</v>
       </c>
       <c r="N16">
-        <v>1.325116825</v>
+        <v>0.8913281499999997</v>
       </c>
       <c r="O16">
-        <v>1.365080216666666</v>
+        <v>0.8896422400000001</v>
       </c>
       <c r="P16">
-        <v>1.13553505</v>
+        <v>0.9691563999999996</v>
       </c>
       <c r="Q16">
-        <v>1.13553505</v>
+        <v>0.9691563999999996</v>
       </c>
       <c r="R16">
-        <v>1.0407441625</v>
+        <v>1.008070524999999</v>
       </c>
       <c r="S16">
-        <v>1.0407441625</v>
+        <v>1.008070524999999</v>
       </c>
       <c r="T16">
-        <v>1.026416571666666</v>
+        <v>0.9841009699999997</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99042653</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="D17">
-        <v>1.0074929</v>
+        <v>1.0262848</v>
       </c>
       <c r="E17">
-        <v>0.9915686300000001</v>
+        <v>1.1248129</v>
       </c>
       <c r="F17">
-        <v>0.99042653</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="G17">
-        <v>1.0183129</v>
+        <v>1.055856</v>
       </c>
       <c r="H17">
-        <v>0.9936811300000001</v>
+        <v>0.88627042</v>
       </c>
       <c r="I17">
-        <v>0.9915686300000001</v>
+        <v>1.1248129</v>
       </c>
       <c r="J17">
-        <v>1.0028503</v>
+        <v>1.0550102</v>
       </c>
       <c r="K17">
-        <v>0.9915686300000001</v>
+        <v>1.1248129</v>
       </c>
       <c r="L17">
-        <v>1.0074929</v>
+        <v>1.0262848</v>
       </c>
       <c r="M17">
-        <v>0.998959715</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N17">
-        <v>0.998959715</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O17">
-        <v>0.9972001866666668</v>
+        <v>0.88964224</v>
       </c>
       <c r="P17">
-        <v>0.99649602</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q17">
-        <v>0.99649602</v>
+        <v>0.9691564</v>
       </c>
       <c r="R17">
-        <v>0.9952641725000001</v>
+        <v>1.008070525</v>
       </c>
       <c r="S17">
-        <v>0.9952641725000001</v>
+        <v>1.008070525</v>
       </c>
       <c r="T17">
-        <v>1.000722065</v>
+        <v>0.9841009700000001</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9366024561643832</v>
+        <v>1.8399756</v>
       </c>
       <c r="D18">
-        <v>1.025791807945205</v>
+        <v>0.81025805</v>
       </c>
       <c r="E18">
-        <v>0.998402360821918</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="F18">
-        <v>0.9366024561643832</v>
+        <v>1.8399756</v>
       </c>
       <c r="G18">
-        <v>1.075279090958904</v>
+        <v>0.5123396</v>
       </c>
       <c r="H18">
-        <v>0.9580739405479453</v>
+        <v>1.445007</v>
       </c>
       <c r="I18">
-        <v>0.998402360821918</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="J18">
-        <v>1.017806560547945</v>
+        <v>0.79454768</v>
       </c>
       <c r="K18">
-        <v>0.998402360821918</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="L18">
-        <v>1.025791807945205</v>
+        <v>0.81025805</v>
       </c>
       <c r="M18">
-        <v>0.9811971320547943</v>
+        <v>1.325116825</v>
       </c>
       <c r="N18">
-        <v>0.9811971320547943</v>
+        <v>1.325116825</v>
       </c>
       <c r="O18">
-        <v>0.9734894015525114</v>
+        <v>1.365080216666666</v>
       </c>
       <c r="P18">
-        <v>0.9869322083105022</v>
+        <v>1.13553505</v>
       </c>
       <c r="Q18">
-        <v>0.9869322083105022</v>
+        <v>1.13553505</v>
       </c>
       <c r="R18">
-        <v>0.9897997464383562</v>
+        <v>1.0407441625</v>
       </c>
       <c r="S18">
-        <v>0.9897997464383562</v>
+        <v>1.0407441625</v>
       </c>
       <c r="T18">
-        <v>1.00199270283105</v>
+        <v>1.026416571666666</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9580039736842104</v>
+        <v>0.99042653</v>
       </c>
       <c r="D19">
-        <v>1.02012635368421</v>
+        <v>1.0074929</v>
       </c>
       <c r="E19">
-        <v>0.9936964242105264</v>
+        <v>0.9915686300000001</v>
       </c>
       <c r="F19">
-        <v>0.9580039736842104</v>
+        <v>0.99042653</v>
       </c>
       <c r="G19">
-        <v>1.060209326842105</v>
+        <v>1.0183129</v>
       </c>
       <c r="H19">
-        <v>0.9699431852631579</v>
+        <v>0.9936811300000001</v>
       </c>
       <c r="I19">
-        <v>0.9936964242105264</v>
+        <v>0.9915686300000001</v>
       </c>
       <c r="J19">
-        <v>1.012420848421053</v>
+        <v>1.0028503</v>
       </c>
       <c r="K19">
-        <v>0.9936964242105264</v>
+        <v>0.9915686300000001</v>
       </c>
       <c r="L19">
-        <v>1.02012635368421</v>
+        <v>1.0074929</v>
       </c>
       <c r="M19">
-        <v>0.9890651636842103</v>
+        <v>0.998959715</v>
       </c>
       <c r="N19">
-        <v>0.9890651636842103</v>
+        <v>0.998959715</v>
       </c>
       <c r="O19">
-        <v>0.9826911708771928</v>
+        <v>0.9972001866666668</v>
       </c>
       <c r="P19">
-        <v>0.9906089171929823</v>
+        <v>0.99649602</v>
       </c>
       <c r="Q19">
-        <v>0.9906089171929824</v>
+        <v>0.99649602</v>
       </c>
       <c r="R19">
-        <v>0.9913807939473684</v>
+        <v>0.9952641725000001</v>
       </c>
       <c r="S19">
-        <v>0.9913807939473684</v>
+        <v>0.9952641725000001</v>
       </c>
       <c r="T19">
-        <v>1.002400018684211</v>
+        <v>1.000722065</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.267154015789474</v>
+        <v>0.9366024561643832</v>
       </c>
       <c r="D20">
-        <v>0.9249589584210527</v>
+        <v>1.025791807945205</v>
       </c>
       <c r="E20">
-        <v>0.9488797357894737</v>
+        <v>0.998402360821918</v>
       </c>
       <c r="F20">
-        <v>1.267154015789474</v>
+        <v>0.9366024561643832</v>
       </c>
       <c r="G20">
-        <v>0.7976590484210528</v>
+        <v>1.075279090958904</v>
       </c>
       <c r="H20">
-        <v>1.151169221052632</v>
+        <v>0.9580739405479453</v>
       </c>
       <c r="I20">
-        <v>0.9488797357894737</v>
+        <v>0.998402360821918</v>
       </c>
       <c r="J20">
-        <v>0.9319329431578948</v>
+        <v>1.017806560547945</v>
       </c>
       <c r="K20">
-        <v>0.9488797357894737</v>
+        <v>0.998402360821918</v>
       </c>
       <c r="L20">
-        <v>0.9249589584210527</v>
+        <v>1.025791807945205</v>
       </c>
       <c r="M20">
-        <v>1.096056487105263</v>
+        <v>0.9811971320547943</v>
       </c>
       <c r="N20">
-        <v>1.096056487105263</v>
+        <v>0.9811971320547943</v>
       </c>
       <c r="O20">
-        <v>1.114427398421053</v>
+        <v>0.9734894015525114</v>
       </c>
       <c r="P20">
-        <v>1.04699757</v>
+        <v>0.9869322083105022</v>
       </c>
       <c r="Q20">
-        <v>1.04699757</v>
+        <v>0.9869322083105022</v>
       </c>
       <c r="R20">
-        <v>1.022468111447369</v>
+        <v>0.9897997464383562</v>
       </c>
       <c r="S20">
-        <v>1.022468111447369</v>
+        <v>0.9897997464383562</v>
       </c>
       <c r="T20">
-        <v>1.00362565377193</v>
+        <v>1.00199270283105</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.6087752629102896</v>
+        <v>0.9580039736842104</v>
       </c>
       <c r="D21">
-        <v>1.118876613314101</v>
+        <v>1.02012635368421</v>
       </c>
       <c r="E21">
-        <v>1.060157332243438</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="F21">
-        <v>0.6087752629102896</v>
+        <v>0.9580039736842104</v>
       </c>
       <c r="G21">
-        <v>1.328982962628722</v>
+        <v>1.060209326842105</v>
       </c>
       <c r="H21">
-        <v>0.7707925705384401</v>
+        <v>0.9699431852631579</v>
       </c>
       <c r="I21">
-        <v>1.060157332243438</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="J21">
-        <v>1.101757282267054</v>
+        <v>1.012420848421053</v>
       </c>
       <c r="K21">
-        <v>1.060157332243438</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="L21">
-        <v>1.118876613314101</v>
+        <v>1.02012635368421</v>
       </c>
       <c r="M21">
-        <v>0.8638259381121953</v>
+        <v>0.9890651636842103</v>
       </c>
       <c r="N21">
-        <v>0.8638259381121953</v>
+        <v>0.9890651636842103</v>
       </c>
       <c r="O21">
-        <v>0.8328148155876103</v>
+        <v>0.9826911708771928</v>
       </c>
       <c r="P21">
-        <v>0.929269736155943</v>
+        <v>0.9906089171929823</v>
       </c>
       <c r="Q21">
-        <v>0.929269736155943</v>
+        <v>0.9906089171929824</v>
       </c>
       <c r="R21">
-        <v>0.9619916351778168</v>
+        <v>0.9913807939473684</v>
       </c>
       <c r="S21">
-        <v>0.9619916351778168</v>
+        <v>0.9913807939473684</v>
       </c>
       <c r="T21">
-        <v>0.9982236706503408</v>
+        <v>1.002400018684211</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8751624151924478</v>
+        <v>1.267154015789474</v>
       </c>
       <c r="D22">
-        <v>1.022439094449975</v>
+        <v>0.9249589584210527</v>
       </c>
       <c r="E22">
-        <v>1.046662981219421</v>
+        <v>0.9488797357894737</v>
       </c>
       <c r="F22">
-        <v>0.8751624151924478</v>
+        <v>1.267154015789474</v>
       </c>
       <c r="G22">
-        <v>1.054272234625513</v>
+        <v>0.7976590484210528</v>
       </c>
       <c r="H22">
-        <v>0.9374779605329293</v>
+        <v>1.151169221052632</v>
       </c>
       <c r="I22">
-        <v>1.046662981219421</v>
+        <v>0.9488797357894737</v>
       </c>
       <c r="J22">
-        <v>1.029501459234324</v>
+        <v>0.9319329431578948</v>
       </c>
       <c r="K22">
-        <v>1.046662981219421</v>
+        <v>0.9488797357894737</v>
       </c>
       <c r="L22">
-        <v>1.022439094449975</v>
+        <v>0.9249589584210527</v>
       </c>
       <c r="M22">
-        <v>0.9488007548212116</v>
+        <v>1.096056487105263</v>
       </c>
       <c r="N22">
-        <v>0.9488007548212116</v>
+        <v>1.096056487105263</v>
       </c>
       <c r="O22">
-        <v>0.9450264900584507</v>
+        <v>1.114427398421053</v>
       </c>
       <c r="P22">
-        <v>0.981421496953948</v>
+        <v>1.04699757</v>
       </c>
       <c r="Q22">
-        <v>0.981421496953948</v>
+        <v>1.04699757</v>
       </c>
       <c r="R22">
-        <v>0.9977318680203162</v>
+        <v>1.022468111447369</v>
       </c>
       <c r="S22">
-        <v>0.9977318680203162</v>
+        <v>1.022468111447369</v>
       </c>
       <c r="T22">
-        <v>0.9942526908757684</v>
+        <v>1.00362565377193</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9948998809505057</v>
+        <v>0.6087752629102896</v>
       </c>
       <c r="D23">
-        <v>1.002520573470642</v>
+        <v>1.118876613314101</v>
       </c>
       <c r="E23">
-        <v>0.9985390216161668</v>
+        <v>1.060157332243438</v>
       </c>
       <c r="F23">
-        <v>0.9948998809505057</v>
+        <v>0.6087752629102896</v>
       </c>
       <c r="G23">
-        <v>1.006068376289979</v>
+        <v>1.328982962628722</v>
       </c>
       <c r="H23">
-        <v>0.9970636620381407</v>
+        <v>0.7707925705384401</v>
       </c>
       <c r="I23">
-        <v>0.9985390216161668</v>
+        <v>1.060157332243438</v>
       </c>
       <c r="J23">
-        <v>1.001359776493564</v>
+        <v>1.101757282267054</v>
       </c>
       <c r="K23">
-        <v>0.9985390216161668</v>
+        <v>1.060157332243438</v>
       </c>
       <c r="L23">
-        <v>1.002520573470642</v>
+        <v>1.118876613314101</v>
       </c>
       <c r="M23">
-        <v>0.9987102272105739</v>
+        <v>0.8638259381121953</v>
       </c>
       <c r="N23">
-        <v>0.9987102272105739</v>
+        <v>0.8638259381121953</v>
       </c>
       <c r="O23">
-        <v>0.9981613721530961</v>
+        <v>0.8328148155876103</v>
       </c>
       <c r="P23">
-        <v>0.9986531586791049</v>
+        <v>0.929269736155943</v>
       </c>
       <c r="Q23">
-        <v>0.9986531586791049</v>
+        <v>0.929269736155943</v>
       </c>
       <c r="R23">
-        <v>0.9986246244133703</v>
+        <v>0.9619916351778168</v>
       </c>
       <c r="S23">
-        <v>0.9986246244133703</v>
+        <v>0.9619916351778168</v>
       </c>
       <c r="T23">
-        <v>1.000075215143166</v>
+        <v>0.9982236706503408</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9988911172967685</v>
+        <v>0.8751624151924478</v>
       </c>
       <c r="D24">
-        <v>0.9995739654508984</v>
+        <v>1.022439094449975</v>
       </c>
       <c r="E24">
-        <v>1.002150129736611</v>
+        <v>1.046662981219421</v>
       </c>
       <c r="F24">
-        <v>0.9988911172967685</v>
+        <v>0.8751624151924478</v>
       </c>
       <c r="G24">
-        <v>1.000107663060355</v>
+        <v>1.054272234625513</v>
       </c>
       <c r="H24">
-        <v>0.9990153688385859</v>
+        <v>0.9374779605329293</v>
       </c>
       <c r="I24">
-        <v>1.002150129736611</v>
+        <v>1.046662981219421</v>
       </c>
       <c r="J24">
-        <v>1.000325035774882</v>
+        <v>1.029501459234324</v>
       </c>
       <c r="K24">
-        <v>1.002150129736611</v>
+        <v>1.046662981219421</v>
       </c>
       <c r="L24">
-        <v>0.9995739654508984</v>
+        <v>1.022439094449975</v>
       </c>
       <c r="M24">
-        <v>0.9992325413738334</v>
+        <v>0.9488007548212116</v>
       </c>
       <c r="N24">
-        <v>0.9992325413738334</v>
+        <v>0.9488007548212116</v>
       </c>
       <c r="O24">
-        <v>0.999160150528751</v>
+        <v>0.9450264900584507</v>
       </c>
       <c r="P24">
-        <v>1.000205070828093</v>
+        <v>0.981421496953948</v>
       </c>
       <c r="Q24">
-        <v>1.000205070828093</v>
+        <v>0.981421496953948</v>
       </c>
       <c r="R24">
-        <v>1.000691335555222</v>
+        <v>0.9977318680203162</v>
       </c>
       <c r="S24">
-        <v>1.000691335555222</v>
+        <v>0.9977318680203162</v>
       </c>
       <c r="T24">
-        <v>1.000010546693017</v>
+        <v>0.9942526908757684</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.548079765550479</v>
+        <v>0.9948998809505057</v>
       </c>
       <c r="D25">
-        <v>0.8710206287832202</v>
+        <v>1.002520573470642</v>
       </c>
       <c r="E25">
-        <v>0.8489902940146982</v>
+        <v>0.9985390216161668</v>
       </c>
       <c r="F25">
-        <v>1.548079765550479</v>
+        <v>0.9948998809505057</v>
       </c>
       <c r="G25">
-        <v>0.6616320149711334</v>
+        <v>1.006068376289979</v>
       </c>
       <c r="H25">
-        <v>1.295572467635066</v>
+        <v>0.9970636620381407</v>
       </c>
       <c r="I25">
-        <v>0.8489902940146982</v>
+        <v>0.9985390216161668</v>
       </c>
       <c r="J25">
-        <v>0.8645977896334297</v>
+        <v>1.001359776493564</v>
       </c>
       <c r="K25">
-        <v>0.8489902940146982</v>
+        <v>0.9985390216161668</v>
       </c>
       <c r="L25">
-        <v>0.8710206287832202</v>
+        <v>1.002520573470642</v>
       </c>
       <c r="M25">
-        <v>1.20955019716685</v>
+        <v>0.9987102272105739</v>
       </c>
       <c r="N25">
-        <v>1.20955019716685</v>
+        <v>0.9987102272105739</v>
       </c>
       <c r="O25">
-        <v>1.238224287322922</v>
+        <v>0.9981613721530961</v>
       </c>
       <c r="P25">
-        <v>1.089363562782799</v>
+        <v>0.9986531586791049</v>
       </c>
       <c r="Q25">
-        <v>1.089363562782799</v>
+        <v>0.9986531586791049</v>
       </c>
       <c r="R25">
-        <v>1.029270245590774</v>
+        <v>0.9986246244133703</v>
       </c>
       <c r="S25">
-        <v>1.029270245590774</v>
+        <v>0.9986246244133703</v>
       </c>
       <c r="T25">
-        <v>1.014982160098004</v>
+        <v>1.000075215143166</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.137269315054174</v>
+        <v>0.9988911172967685</v>
       </c>
       <c r="D26">
-        <v>0.9623121884336756</v>
+        <v>0.9995739654508984</v>
       </c>
       <c r="E26">
-        <v>0.9711561553077607</v>
+        <v>1.002150129736611</v>
       </c>
       <c r="F26">
-        <v>1.137269315054174</v>
+        <v>0.9988911172967685</v>
       </c>
       <c r="G26">
-        <v>0.8961192061560384</v>
+        <v>1.000107663060355</v>
       </c>
       <c r="H26">
-        <v>1.078493950850909</v>
+        <v>0.9990153688385859</v>
       </c>
       <c r="I26">
-        <v>0.9711561553077607</v>
+        <v>1.002150129736611</v>
       </c>
       <c r="J26">
-        <v>0.9648906036752073</v>
+        <v>1.000325035774882</v>
       </c>
       <c r="K26">
-        <v>0.9711561553077607</v>
+        <v>1.002150129736611</v>
       </c>
       <c r="L26">
-        <v>0.9623121884336756</v>
+        <v>0.9995739654508984</v>
       </c>
       <c r="M26">
-        <v>1.049790751743925</v>
+        <v>0.9992325413738334</v>
       </c>
       <c r="N26">
-        <v>1.049790751743925</v>
+        <v>0.9992325413738334</v>
       </c>
       <c r="O26">
-        <v>1.059358484779586</v>
+        <v>0.999160150528751</v>
       </c>
       <c r="P26">
-        <v>1.023579219598537</v>
+        <v>1.000205070828093</v>
       </c>
       <c r="Q26">
-        <v>1.023579219598537</v>
+        <v>1.000205070828093</v>
       </c>
       <c r="R26">
-        <v>1.010473453525843</v>
+        <v>1.000691335555222</v>
       </c>
       <c r="S26">
-        <v>1.010473453525843</v>
+        <v>1.000691335555222</v>
       </c>
       <c r="T26">
-        <v>1.001706903246294</v>
+        <v>1.000010546693017</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9887836093569738</v>
+        <v>1.548079765550479</v>
       </c>
       <c r="D27">
-        <v>1.003614436883144</v>
+        <v>0.8710206287832202</v>
       </c>
       <c r="E27">
-        <v>1.001232622467071</v>
+        <v>0.8489902940146982</v>
       </c>
       <c r="F27">
-        <v>0.9887836093569738</v>
+        <v>1.548079765550479</v>
       </c>
       <c r="G27">
-        <v>1.009769760072786</v>
+        <v>0.6616320149711334</v>
       </c>
       <c r="H27">
-        <v>0.9934602645621569</v>
+        <v>1.295572467635066</v>
       </c>
       <c r="I27">
-        <v>1.001232622467071</v>
+        <v>0.8489902940146982</v>
       </c>
       <c r="J27">
-        <v>1.002920020244579</v>
+        <v>0.8645977896334297</v>
       </c>
       <c r="K27">
-        <v>1.001232622467071</v>
+        <v>0.8489902940146982</v>
       </c>
       <c r="L27">
-        <v>1.003614436883144</v>
+        <v>0.8710206287832202</v>
       </c>
       <c r="M27">
-        <v>0.9961990231200588</v>
+        <v>1.20955019716685</v>
       </c>
       <c r="N27">
-        <v>0.9961990231200588</v>
+        <v>1.20955019716685</v>
       </c>
       <c r="O27">
-        <v>0.9952861036007582</v>
+        <v>1.238224287322922</v>
       </c>
       <c r="P27">
-        <v>0.9978768895690627</v>
+        <v>1.089363562782799</v>
       </c>
       <c r="Q27">
-        <v>0.997876889569063</v>
+        <v>1.089363562782799</v>
       </c>
       <c r="R27">
-        <v>0.9987158227935649</v>
+        <v>1.029270245590774</v>
       </c>
       <c r="S27">
-        <v>0.9987158227935649</v>
+        <v>1.029270245590774</v>
       </c>
       <c r="T27">
-        <v>0.9999634522644517</v>
+        <v>1.014982160098004</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.046907819633994</v>
+        <v>1.137269315054174</v>
       </c>
       <c r="D28">
-        <v>0.9937833612061849</v>
+        <v>0.9623121884336756</v>
       </c>
       <c r="E28">
-        <v>0.9784881533724461</v>
+        <v>0.9711561553077607</v>
       </c>
       <c r="F28">
-        <v>1.046907819633994</v>
+        <v>1.137269315054174</v>
       </c>
       <c r="G28">
-        <v>0.9867175950455936</v>
+        <v>0.8961192061560384</v>
       </c>
       <c r="H28">
-        <v>1.02204574667391</v>
+        <v>1.078493950850909</v>
       </c>
       <c r="I28">
-        <v>0.9784881533724461</v>
+        <v>0.9711561553077607</v>
       </c>
       <c r="J28">
-        <v>0.9893241196219088</v>
+        <v>0.9648906036752073</v>
       </c>
       <c r="K28">
-        <v>0.9784881533724461</v>
+        <v>0.9711561553077607</v>
       </c>
       <c r="L28">
-        <v>0.9937833612061849</v>
+        <v>0.9623121884336756</v>
       </c>
       <c r="M28">
-        <v>1.02034559042009</v>
+        <v>1.049790751743925</v>
       </c>
       <c r="N28">
-        <v>1.02034559042009</v>
+        <v>1.049790751743925</v>
       </c>
       <c r="O28">
-        <v>1.020912309171363</v>
+        <v>1.059358484779586</v>
       </c>
       <c r="P28">
-        <v>1.006393111404209</v>
+        <v>1.023579219598537</v>
       </c>
       <c r="Q28">
-        <v>1.006393111404208</v>
+        <v>1.023579219598537</v>
       </c>
       <c r="R28">
-        <v>0.9994168718962679</v>
+        <v>1.010473453525843</v>
       </c>
       <c r="S28">
-        <v>0.9994168718962679</v>
+        <v>1.010473453525843</v>
       </c>
       <c r="T28">
-        <v>1.002877799259006</v>
+        <v>1.001706903246294</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9887836093569738</v>
+      </c>
+      <c r="D29">
+        <v>1.003614436883144</v>
+      </c>
+      <c r="E29">
+        <v>1.001232622467071</v>
+      </c>
+      <c r="F29">
+        <v>0.9887836093569738</v>
+      </c>
+      <c r="G29">
+        <v>1.009769760072786</v>
+      </c>
+      <c r="H29">
+        <v>0.9934602645621569</v>
+      </c>
+      <c r="I29">
+        <v>1.001232622467071</v>
+      </c>
+      <c r="J29">
+        <v>1.002920020244579</v>
+      </c>
+      <c r="K29">
+        <v>1.001232622467071</v>
+      </c>
+      <c r="L29">
+        <v>1.003614436883144</v>
+      </c>
+      <c r="M29">
+        <v>0.9961990231200588</v>
+      </c>
+      <c r="N29">
+        <v>0.9961990231200588</v>
+      </c>
+      <c r="O29">
+        <v>0.9952861036007582</v>
+      </c>
+      <c r="P29">
+        <v>0.9978768895690627</v>
+      </c>
+      <c r="Q29">
+        <v>0.997876889569063</v>
+      </c>
+      <c r="R29">
+        <v>0.9987158227935649</v>
+      </c>
+      <c r="S29">
+        <v>0.9987158227935649</v>
+      </c>
+      <c r="T29">
+        <v>0.9999634522644517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.046907819633994</v>
+      </c>
+      <c r="D30">
+        <v>0.9937833612061849</v>
+      </c>
+      <c r="E30">
+        <v>0.9784881533724461</v>
+      </c>
+      <c r="F30">
+        <v>1.046907819633994</v>
+      </c>
+      <c r="G30">
+        <v>0.9867175950455936</v>
+      </c>
+      <c r="H30">
+        <v>1.02204574667391</v>
+      </c>
+      <c r="I30">
+        <v>0.9784881533724461</v>
+      </c>
+      <c r="J30">
+        <v>0.9893241196219088</v>
+      </c>
+      <c r="K30">
+        <v>0.9784881533724461</v>
+      </c>
+      <c r="L30">
+        <v>0.9937833612061849</v>
+      </c>
+      <c r="M30">
+        <v>1.02034559042009</v>
+      </c>
+      <c r="N30">
+        <v>1.02034559042009</v>
+      </c>
+      <c r="O30">
+        <v>1.020912309171363</v>
+      </c>
+      <c r="P30">
+        <v>1.006393111404209</v>
+      </c>
+      <c r="Q30">
+        <v>1.006393111404208</v>
+      </c>
+      <c r="R30">
+        <v>0.9994168718962679</v>
+      </c>
+      <c r="S30">
+        <v>0.9994168718962679</v>
+      </c>
+      <c r="T30">
+        <v>1.002877799259006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.079349398989582</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9870429699903934</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9672485777568528</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.079349398989582</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9677054071578481</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.039908073444392</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9672485777568528</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9812720197657602</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9672485777568528</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9870429699903934</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.033196184489988</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.033196184489988</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.035433480808122</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.011213648912276</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.011213648912276</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.00022238112342</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.00022238112342</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.003754407850805</v>
       </c>
     </row>
